--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_CO.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>420.4814592647439</v>
+        <v>712.990300492392</v>
       </c>
       <c r="C2">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D2">
-        <v>37.4394921237891</v>
+        <v>63.48435620990322</v>
       </c>
       <c r="E2">
-        <v>32.13415463302319</v>
+        <v>54.4883491603437</v>
       </c>
       <c r="F2">
-        <v>20.55850985443914</v>
+        <v>34.86008192709242</v>
       </c>
       <c r="G2">
-        <v>394.9923488319198</v>
+        <v>669.7696349758644</v>
       </c>
       <c r="H2">
-        <v>4.395214541058299</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I2">
-        <v>913.5414317983118</v>
+        <v>1549.048514788442</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>504.5023960174661</v>
+        <v>855.4605845513554</v>
       </c>
       <c r="C3">
-        <v>8.528790232497181</v>
+        <v>14.46186169858218</v>
       </c>
       <c r="D3">
-        <v>70.34086399014922</v>
+        <v>119.2736389398182</v>
       </c>
       <c r="E3">
-        <v>14.10767764376628</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F3">
-        <v>16.69726688685413</v>
+        <v>28.31275689510046</v>
       </c>
       <c r="G3">
-        <v>129.4697143393514</v>
+        <v>219.5356025754222</v>
       </c>
       <c r="H3">
-        <v>10.25550059580269</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I3">
-        <v>753.9022097058869</v>
+        <v>1278.355920805634</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>542.1799461307945</v>
+        <v>919.3486043087388</v>
       </c>
       <c r="C4">
-        <v>8.850631373346133</v>
+        <v>15.00759232871736</v>
       </c>
       <c r="D4">
-        <v>64.66821366836297</v>
+        <v>109.6547970898329</v>
       </c>
       <c r="E4">
-        <v>10.18887829827565</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F4">
-        <v>17.84520398532534</v>
+        <v>30.2592589316386</v>
       </c>
       <c r="G4">
-        <v>120.692106587531</v>
+        <v>204.6518329092918</v>
       </c>
       <c r="H4">
-        <v>9.522964838959645</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I4">
-        <v>773.9479448825954</v>
+        <v>1312.346515235706</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>533.1373341035957</v>
+        <v>904.0154795669667</v>
       </c>
       <c r="C5">
-        <v>7.885107950799281</v>
+        <v>13.37040043831183</v>
       </c>
       <c r="D5">
-        <v>57.8610332822195</v>
+        <v>98.11218686985048</v>
       </c>
       <c r="E5">
-        <v>14.89143751286441</v>
+        <v>25.25069839137877</v>
       </c>
       <c r="F5">
-        <v>21.08029944465333</v>
+        <v>35.74485558006432</v>
       </c>
       <c r="G5">
-        <v>125.0809104634412</v>
+        <v>212.0937177423569</v>
       </c>
       <c r="H5">
-        <v>9.522964838959645</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I5">
-        <v>769.459087596533</v>
+        <v>1304.734974620208</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>550.4690071557269</v>
+        <v>933.4039686553631</v>
       </c>
       <c r="C6">
-        <v>8.528790232497181</v>
+        <v>14.46186169858218</v>
       </c>
       <c r="D6">
-        <v>72.60992411886367</v>
+        <v>123.1211756798124</v>
       </c>
       <c r="E6">
-        <v>14.89143751286441</v>
+        <v>25.25069839137877</v>
       </c>
       <c r="F6">
-        <v>18.36699357553952</v>
+        <v>31.14403258461052</v>
       </c>
       <c r="G6">
-        <v>100.9424891459351</v>
+        <v>171.1633511604986</v>
       </c>
       <c r="H6">
-        <v>6.592821811587447</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I6">
-        <v>772.4014635530141</v>
+        <v>1309.724220807285</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>563.6561496953919</v>
+        <v>955.7647755704467</v>
       </c>
       <c r="C7">
-        <v>7.724187380374806</v>
+        <v>13.09753512324424</v>
       </c>
       <c r="D7">
-        <v>79.41710450500717</v>
+        <v>134.6637858997947</v>
       </c>
       <c r="E7">
-        <v>22.72903620384568</v>
+        <v>38.5405396499992</v>
       </c>
       <c r="F7">
-        <v>15.75804562446857</v>
+        <v>26.72016431975106</v>
       </c>
       <c r="G7">
-        <v>85.58167558024931</v>
+        <v>145.1167542447705</v>
       </c>
       <c r="H7">
-        <v>10.25550059580269</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I7">
-        <v>785.1216995851402</v>
+        <v>1331.293316687846</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>621.6795768699171</v>
+        <v>1054.152325996816</v>
       </c>
       <c r="C8">
-        <v>8.367869662072707</v>
+        <v>14.18899638351459</v>
       </c>
       <c r="D8">
-        <v>69.20633392579194</v>
+        <v>117.3498705698211</v>
       </c>
       <c r="E8">
-        <v>27.43159541843443</v>
+        <v>46.51444440517142</v>
       </c>
       <c r="F8">
-        <v>15.5493297883829</v>
+        <v>26.36625485856232</v>
       </c>
       <c r="G8">
-        <v>54.86004844887776</v>
+        <v>93.02356041331444</v>
       </c>
       <c r="H8">
-        <v>17.5808581642332</v>
+        <v>29.81102036543889</v>
       </c>
       <c r="I8">
-        <v>814.67561227771</v>
+        <v>1381.406472992639</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>690.2527180761746</v>
+        <v>1170.428521955252</v>
       </c>
       <c r="C9">
-        <v>5.471299394432155</v>
+        <v>9.277420712298001</v>
       </c>
       <c r="D9">
-        <v>53.32291302479052</v>
+        <v>90.41711338986215</v>
       </c>
       <c r="E9">
-        <v>42.32303293129885</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F9">
-        <v>15.13189811621154</v>
+        <v>25.6584359361848</v>
       </c>
       <c r="G9">
-        <v>46.08244069705731</v>
+        <v>78.13979074718415</v>
       </c>
       <c r="H9">
-        <v>4.395214541058299</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I9">
-        <v>856.9795167810233</v>
+        <v>1453.139180628691</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>670.2836165161106</v>
+        <v>1136.56787148384</v>
       </c>
       <c r="C10">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D10">
-        <v>44.24667250993256</v>
+        <v>75.02696642988565</v>
       </c>
       <c r="E10">
-        <v>56.43071057506513</v>
+        <v>95.68685706206693</v>
       </c>
       <c r="F10">
-        <v>8.139917607341381</v>
+        <v>13.80246898636148</v>
       </c>
       <c r="G10">
-        <v>39.49923488319198</v>
+        <v>66.97696349758642</v>
       </c>
       <c r="H10">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I10">
-        <v>822.8729403978232</v>
+        <v>1395.306290239787</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>472.4764784211372</v>
+        <v>801.1557677575805</v>
       </c>
       <c r="C11">
-        <v>3.057490838065027</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D11">
-        <v>38.57402218814634</v>
+        <v>65.40812457990029</v>
       </c>
       <c r="E11">
-        <v>43.89055266949509</v>
+        <v>74.42311104827431</v>
       </c>
       <c r="F11">
-        <v>4.174316721713532</v>
+        <v>7.078189223775116</v>
       </c>
       <c r="G11">
-        <v>24.1384213175062</v>
+        <v>40.93036658185835</v>
       </c>
       <c r="H11">
-        <v>2.197607270529149</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I11">
-        <v>588.5088894265926</v>
+        <v>997.9063777233525</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>400.5123577046801</v>
+        <v>679.1296500209789</v>
       </c>
       <c r="C12">
-        <v>6.436822816979006</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D12">
-        <v>26.09419148021664</v>
+        <v>44.24667250993256</v>
       </c>
       <c r="E12">
-        <v>36.83671384761195</v>
+        <v>62.46225391551594</v>
       </c>
       <c r="F12">
-        <v>3.965600885627854</v>
+        <v>6.72427976258636</v>
       </c>
       <c r="G12">
-        <v>37.30483294523685</v>
+        <v>63.25602108105382</v>
       </c>
       <c r="H12">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I12">
-        <v>511.8830554371955</v>
+        <v>867.975615741331</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>321.3895024666905</v>
+        <v>544.9648085304755</v>
       </c>
       <c r="C13">
-        <v>4.827617112734254</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D13">
-        <v>20.42154115843042</v>
+        <v>34.62783065994721</v>
       </c>
       <c r="E13">
-        <v>31.35039476392507</v>
+        <v>53.15936503448165</v>
       </c>
       <c r="F13">
-        <v>2.295874196942441</v>
+        <v>3.893004073076315</v>
       </c>
       <c r="G13">
-        <v>24.1384213175062</v>
+        <v>40.93036658185835</v>
       </c>
       <c r="H13">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I13">
-        <v>405.888422529915</v>
+        <v>688.2455860289866</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>243.7737492332341</v>
+        <v>413.3554878302666</v>
       </c>
       <c r="C14">
-        <v>5.471299394432155</v>
+        <v>9.277420712298001</v>
       </c>
       <c r="D14">
-        <v>17.01795096535868</v>
+        <v>28.85652554995602</v>
       </c>
       <c r="E14">
-        <v>10.18887829827565</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F14">
-        <v>1.461010852599735</v>
+        <v>2.477366228321292</v>
       </c>
       <c r="G14">
-        <v>15.36081356568577</v>
+        <v>26.04659691572804</v>
       </c>
       <c r="H14">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I14">
-        <v>294.0062380664291</v>
+        <v>498.5323167213364</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>152.5940779589797</v>
+        <v>258.7464800174003</v>
       </c>
       <c r="C15">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D15">
-        <v>13.61436077228695</v>
+        <v>23.08522043996481</v>
       </c>
       <c r="E15">
-        <v>7.053838821883142</v>
+        <v>11.96085713275837</v>
       </c>
       <c r="F15">
-        <v>2.40023211498528</v>
+        <v>4.069958803670691</v>
       </c>
       <c r="G15">
-        <v>26.33282325546131</v>
+        <v>44.65130899839094</v>
       </c>
       <c r="H15">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I15">
-        <v>206.2681212297779</v>
+        <v>349.758988172232</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>114.5397523445181</v>
+        <v>194.2195800624438</v>
       </c>
       <c r="C16">
-        <v>4.98853768315873</v>
+        <v>8.458824767095235</v>
       </c>
       <c r="D16">
-        <v>6.807180386143473</v>
+        <v>11.54261021998241</v>
       </c>
       <c r="E16">
-        <v>2.351279607294381</v>
+        <v>3.986952377586123</v>
       </c>
       <c r="F16">
-        <v>0.9392212623855443</v>
+        <v>1.592592575349401</v>
       </c>
       <c r="G16">
-        <v>17.55521550364088</v>
+        <v>29.76753933226063</v>
       </c>
       <c r="H16">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I16">
-        <v>147.9137225439842</v>
+        <v>250.8102251832776</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>73.09444721985692</v>
+        <v>123.9427583293226</v>
       </c>
       <c r="C17">
-        <v>5.632219964856628</v>
+        <v>9.550286027365589</v>
       </c>
       <c r="E17">
-        <v>0.783759869098127</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F17">
-        <v>1.982800442813927</v>
+        <v>3.36213988129318</v>
       </c>
       <c r="G17">
-        <v>17.55521550364088</v>
+        <v>29.76753933226063</v>
       </c>
       <c r="H17">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I17">
-        <v>99.78097875710954</v>
+        <v>169.193833544664</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>43.70595813146084</v>
+        <v>74.11010291856405</v>
       </c>
       <c r="C18">
-        <v>4.666696542309778</v>
+        <v>7.91309413696006</v>
       </c>
       <c r="D18">
-        <v>6.807180386143473</v>
+        <v>11.54261021998241</v>
       </c>
       <c r="F18">
-        <v>1.461010852599735</v>
+        <v>2.477366228321292</v>
       </c>
       <c r="G18">
-        <v>30.72162713137154</v>
+        <v>52.09319383145608</v>
       </c>
       <c r="I18">
-        <v>87.36247304388536</v>
+        <v>148.1363673352839</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>54.25567216319276</v>
+        <v>91.9987484506312</v>
       </c>
       <c r="C19">
-        <v>3.057490838065027</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D19">
-        <v>5.672650321786227</v>
+        <v>9.618841849985337</v>
       </c>
       <c r="E19">
-        <v>3.135039476392508</v>
+        <v>5.315936503448163</v>
       </c>
       <c r="F19">
-        <v>1.461010852599735</v>
+        <v>2.477366228321292</v>
       </c>
       <c r="G19">
-        <v>37.30483294523685</v>
+        <v>63.25602108105382</v>
       </c>
       <c r="I19">
-        <v>104.8866965972731</v>
+        <v>177.851355099724</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>89.67256926972136</v>
+        <v>152.053487022571</v>
       </c>
       <c r="C20">
-        <v>2.735649697216077</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D20">
-        <v>11.34530064357245</v>
+        <v>19.23768369997067</v>
       </c>
       <c r="E20">
-        <v>1.567519738196254</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F20">
-        <v>2.504590033028117</v>
+        <v>4.24691353426507</v>
       </c>
       <c r="G20">
-        <v>46.08244069705731</v>
+        <v>78.13979074718415</v>
       </c>
       <c r="I20">
-        <v>153.9080700787916</v>
+        <v>260.974553611864</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>203.0819951108396</v>
+        <v>344.3564264922932</v>
       </c>
       <c r="C21">
-        <v>3.057490838065027</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D21">
-        <v>26.09419148021664</v>
+        <v>44.24667250993256</v>
       </c>
       <c r="E21">
-        <v>20.3777565965513</v>
+        <v>34.55358727241307</v>
       </c>
       <c r="F21">
-        <v>6.261475082570295</v>
+        <v>10.61728383566267</v>
       </c>
       <c r="G21">
-        <v>72.4152639525186</v>
+        <v>122.791099745575</v>
       </c>
       <c r="H21">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I21">
-        <v>332.0207088176045</v>
+        <v>562.9916366907206</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>374.5148481264835</v>
+        <v>635.0469163883847</v>
       </c>
       <c r="C22">
-        <v>3.379331978913978</v>
+        <v>5.730171616419355</v>
       </c>
       <c r="D22">
-        <v>46.51573263864706</v>
+        <v>78.8745031698798</v>
       </c>
       <c r="E22">
-        <v>72.8896678261258</v>
+        <v>123.5955237051698</v>
       </c>
       <c r="F22">
-        <v>10.74886555841234</v>
+        <v>18.22633725122091</v>
       </c>
       <c r="G22">
-        <v>118.4977046495759</v>
+        <v>200.9308904927592</v>
       </c>
       <c r="H22">
-        <v>2.930143027372198</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I22">
-        <v>629.4762938055308</v>
+        <v>1067.372846018074</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>527.1089260854633</v>
+        <v>893.7933964057854</v>
       </c>
       <c r="C23">
-        <v>2.091967415518177</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D23">
-        <v>37.4394921237891</v>
+        <v>63.48435620990322</v>
       </c>
       <c r="E23">
-        <v>57.21447044416328</v>
+        <v>97.01584118792904</v>
       </c>
       <c r="F23">
-        <v>12.41859224709775</v>
+        <v>21.05761294073096</v>
       </c>
       <c r="G23">
-        <v>118.4977046495759</v>
+        <v>200.9308904927592</v>
       </c>
       <c r="H23">
-        <v>5.127750297901347</v>
+        <v>8.694880939919676</v>
       </c>
       <c r="I23">
-        <v>759.8989032635088</v>
+        <v>1288.524227272906</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>644.286106937914</v>
+        <v>1092.485137851246</v>
       </c>
       <c r="C24">
-        <v>4.505775971885304</v>
+        <v>7.640228821892469</v>
       </c>
       <c r="D24">
-        <v>61.26462347529124</v>
+        <v>103.8834919798417</v>
       </c>
       <c r="E24">
-        <v>30.56663489482695</v>
+        <v>51.8303809086196</v>
       </c>
       <c r="F24">
-        <v>14.92318228012587</v>
+        <v>25.30452647499604</v>
       </c>
       <c r="G24">
-        <v>171.1633511604986</v>
+        <v>290.233508489541</v>
       </c>
       <c r="H24">
-        <v>6.592821811587447</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I24">
-        <v>933.3024965321296</v>
+        <v>1582.556407163176</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>485.2868454596689</v>
+        <v>822.8776944750905</v>
       </c>
       <c r="C25">
-        <v>2.896570267640552</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D25">
-        <v>57.8610332822195</v>
+        <v>98.11218686985048</v>
       </c>
       <c r="E25">
-        <v>65.05206913514454</v>
+        <v>110.3056824465494</v>
       </c>
       <c r="F25">
-        <v>16.90598272293979</v>
+        <v>28.66666635628921</v>
       </c>
       <c r="G25">
-        <v>274.3002422443888</v>
+        <v>465.1178020665722</v>
       </c>
       <c r="H25">
-        <v>13.18564362317489</v>
+        <v>22.35826527407917</v>
       </c>
       <c r="I25">
-        <v>915.4883867351768</v>
+        <v>1552.349873159647</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>412.1923982398117</v>
+        <v>698.9349361457674</v>
       </c>
       <c r="C26">
-        <v>2.735649697216077</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D26">
-        <v>54.45744308914778</v>
+        <v>92.34088175985924</v>
       </c>
       <c r="E26">
-        <v>31.35039476392507</v>
+        <v>53.15936503448165</v>
       </c>
       <c r="F26">
-        <v>20.03672026422494</v>
+        <v>33.97530827412056</v>
       </c>
       <c r="G26">
-        <v>430.1027798392016</v>
+        <v>729.3047136403851</v>
       </c>
       <c r="H26">
-        <v>5.127750297901347</v>
+        <v>8.694880939919676</v>
       </c>
       <c r="I26">
-        <v>956.0031361914286</v>
+        <v>1621.048796150683</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>494.3294574868673</v>
+        <v>838.2108192168619</v>
       </c>
       <c r="C27">
-        <v>6.597743387403481</v>
+        <v>11.18747791777112</v>
       </c>
       <c r="D27">
-        <v>100.9731757277948</v>
+        <v>171.215384929739</v>
       </c>
       <c r="E27">
-        <v>13.32391777466816</v>
+        <v>22.59273013965469</v>
       </c>
       <c r="F27">
-        <v>16.27983521468276</v>
+        <v>27.60493797272295</v>
       </c>
       <c r="G27">
-        <v>140.441724029127</v>
+        <v>238.1403146580851</v>
       </c>
       <c r="H27">
-        <v>10.98803635264574</v>
+        <v>18.63188772839931</v>
       </c>
       <c r="I27">
-        <v>782.9338899731893</v>
+        <v>1327.583552563234</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>531.2534565979294</v>
+        <v>900.8210785790975</v>
       </c>
       <c r="C28">
-        <v>6.758663957827957</v>
+        <v>11.46034323283871</v>
       </c>
       <c r="D28">
-        <v>93.03146527729412</v>
+        <v>157.7490063397596</v>
       </c>
       <c r="E28">
-        <v>10.18887829827565</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F28">
-        <v>17.42777231315398</v>
+        <v>29.55144000926111</v>
       </c>
       <c r="G28">
-        <v>131.6641162773066</v>
+        <v>223.2565449919547</v>
       </c>
       <c r="H28">
-        <v>10.25550059580269</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I28">
-        <v>800.5798533175904</v>
+        <v>1357.504968668957</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>522.5876200718637</v>
+        <v>886.1268340348993</v>
       </c>
       <c r="C29">
-        <v>6.114981676130054</v>
+        <v>10.36888197256835</v>
       </c>
       <c r="D29">
-        <v>82.82069469807891</v>
+        <v>140.435091009786</v>
       </c>
       <c r="E29">
-        <v>14.10767764376628</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F29">
-        <v>20.55850985443914</v>
+        <v>34.86008192709242</v>
       </c>
       <c r="G29">
-        <v>136.0529201532168</v>
+        <v>230.6984298250197</v>
       </c>
       <c r="H29">
-        <v>10.25550059580269</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I29">
-        <v>792.4979046932974</v>
+        <v>1343.800794914722</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>539.5425176228615</v>
+        <v>914.8764429257218</v>
       </c>
       <c r="C30">
-        <v>6.597743387403481</v>
+        <v>11.18747791777112</v>
       </c>
       <c r="D30">
-        <v>104.3767659208666</v>
+        <v>176.9866900397302</v>
       </c>
       <c r="E30">
-        <v>14.10767764376628</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F30">
-        <v>17.94956190336817</v>
+        <v>30.43621366223299</v>
       </c>
       <c r="G30">
-        <v>109.7200968977555</v>
+        <v>186.0471208266289</v>
       </c>
       <c r="H30">
-        <v>7.325357568430495</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I30">
-        <v>799.619720944452</v>
+        <v>1355.876918123201</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>552.3528846613934</v>
+        <v>936.5983696432319</v>
       </c>
       <c r="C31">
-        <v>5.954061105705581</v>
+        <v>10.09601665750077</v>
       </c>
       <c r="D31">
-        <v>114.5875365000817</v>
+        <v>194.3006053697038</v>
       </c>
       <c r="E31">
-        <v>21.94527633474755</v>
+        <v>37.21155552413715</v>
       </c>
       <c r="F31">
-        <v>15.34061395229722</v>
+        <v>26.01234539737355</v>
       </c>
       <c r="G31">
-        <v>92.16488139411462</v>
+        <v>156.2795814943683</v>
       </c>
       <c r="H31">
-        <v>10.98803635264574</v>
+        <v>18.63188772839931</v>
       </c>
       <c r="I31">
-        <v>813.3332903009858</v>
+        <v>1379.130361814715</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>609.2459853325189</v>
+        <v>1033.06927947688</v>
       </c>
       <c r="C32">
-        <v>6.436822816979006</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D32">
-        <v>99.83864566343756</v>
+        <v>169.291616559742</v>
       </c>
       <c r="E32">
-        <v>26.64783554933631</v>
+        <v>45.18546027930938</v>
       </c>
       <c r="F32">
-        <v>15.13189811621154</v>
+        <v>25.6584359361848</v>
       </c>
       <c r="G32">
-        <v>59.24885232478796</v>
+        <v>100.4654452463796</v>
       </c>
       <c r="H32">
-        <v>19.04592967791929</v>
+        <v>32.29527206255881</v>
       </c>
       <c r="I32">
-        <v>835.5959694811905</v>
+        <v>1416.880122163758</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>676.3120245342435</v>
+        <v>1146.789954645022</v>
       </c>
       <c r="C33">
-        <v>4.183934831036353</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D33">
-        <v>77.14804437629269</v>
+        <v>130.8162491598006</v>
       </c>
       <c r="E33">
-        <v>40.75551319310259</v>
+        <v>69.10717454482614</v>
       </c>
       <c r="F33">
-        <v>14.71446644404019</v>
+        <v>24.95061701380728</v>
       </c>
       <c r="G33">
-        <v>50.47124457296754</v>
+        <v>85.58167558024931</v>
       </c>
       <c r="H33">
-        <v>5.127750297901347</v>
+        <v>8.694880939919676</v>
       </c>
       <c r="I33">
-        <v>868.7129782495842</v>
+        <v>1473.035050075382</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>656.7196984753125</v>
+        <v>1113.568184371182</v>
       </c>
       <c r="C34">
-        <v>2.735649697216077</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D34">
-        <v>63.53368360400572</v>
+        <v>107.7310287198358</v>
       </c>
       <c r="E34">
-        <v>54.86319083686887</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F34">
-        <v>7.931201771255707</v>
+        <v>13.44855952517272</v>
       </c>
       <c r="G34">
-        <v>43.88803875910219</v>
+        <v>74.41884833065154</v>
       </c>
       <c r="H34">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I34">
-        <v>830.4039989006042</v>
+        <v>1408.076345961894</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>463.057090892805</v>
+        <v>785.1837628182343</v>
       </c>
       <c r="C35">
-        <v>2.413808556367127</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D35">
-        <v>55.59197315350503</v>
+        <v>94.26465012985629</v>
       </c>
       <c r="E35">
-        <v>42.32303293129885</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F35">
-        <v>4.069958803670691</v>
+        <v>6.901234493180739</v>
       </c>
       <c r="G35">
-        <v>26.33282325546131</v>
+        <v>44.65130899839094</v>
       </c>
       <c r="H35">
-        <v>2.197607270529149</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I35">
-        <v>595.9862948636372</v>
+        <v>1010.585456507906</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>392.6000721808811</v>
+        <v>665.7131658719286</v>
       </c>
       <c r="C36">
-        <v>4.98853768315873</v>
+        <v>8.458824767095235</v>
       </c>
       <c r="D36">
-        <v>37.4394921237891</v>
+        <v>63.48435620990322</v>
       </c>
       <c r="E36">
-        <v>36.05295397851383</v>
+        <v>61.1332697896539</v>
       </c>
       <c r="F36">
-        <v>3.861242967585015</v>
+        <v>6.547325031991981</v>
       </c>
       <c r="G36">
-        <v>41.69363682114709</v>
+        <v>70.69790591411896</v>
       </c>
       <c r="H36">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I36">
-        <v>517.3684715119178</v>
+        <v>877.2769734332519</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>314.9843189474248</v>
+        <v>534.10384517172</v>
       </c>
       <c r="C37">
-        <v>3.701173119762928</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D37">
-        <v>29.49778167328837</v>
+        <v>50.01797761992377</v>
       </c>
       <c r="E37">
-        <v>30.56663489482695</v>
+        <v>51.8303809086196</v>
       </c>
       <c r="F37">
-        <v>2.191516278899604</v>
+        <v>3.716049342481937</v>
       </c>
       <c r="G37">
-        <v>26.33282325546131</v>
+        <v>44.65130899839094</v>
       </c>
       <c r="H37">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I37">
-        <v>408.7393196833501</v>
+        <v>693.0797159848107</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>238.8756677185015</v>
+        <v>405.0500452618068</v>
       </c>
       <c r="C38">
-        <v>4.183934831036353</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D38">
-        <v>24.95966141585939</v>
+        <v>42.32290413993551</v>
       </c>
       <c r="E38">
-        <v>10.18887829827565</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F38">
-        <v>1.461010852599735</v>
+        <v>2.477366228321292</v>
       </c>
       <c r="G38">
-        <v>17.55521550364088</v>
+        <v>29.76753933226063</v>
       </c>
       <c r="H38">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I38">
-        <v>297.9569043767565</v>
+        <v>505.2312726388481</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>149.5798739499134</v>
+        <v>253.6354384368098</v>
       </c>
       <c r="C39">
-        <v>2.735649697216077</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D39">
-        <v>19.28701109407317</v>
+        <v>32.70406228995014</v>
       </c>
       <c r="E39">
-        <v>7.053838821883142</v>
+        <v>11.96085713275837</v>
       </c>
       <c r="F39">
-        <v>2.295874196942441</v>
+        <v>3.893004073076315</v>
       </c>
       <c r="G39">
-        <v>28.52722519341643</v>
+        <v>48.3722514149235</v>
       </c>
       <c r="H39">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I39">
-        <v>210.2120087102877</v>
+        <v>356.4464495522271</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>112.2790993377184</v>
+        <v>190.3862988770007</v>
       </c>
       <c r="C40">
-        <v>3.862093690187403</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D40">
-        <v>10.21077057921521</v>
+        <v>17.31391532997361</v>
       </c>
       <c r="E40">
-        <v>2.351279607294381</v>
+        <v>3.986952377586123</v>
       </c>
       <c r="F40">
-        <v>0.9392212623855443</v>
+        <v>1.592592575349401</v>
       </c>
       <c r="G40">
-        <v>19.74961744159599</v>
+        <v>33.48848174879321</v>
       </c>
       <c r="H40">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I40">
-        <v>150.12461767524</v>
+        <v>254.5591343188852</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>71.58734521532379</v>
+        <v>121.3872375390274</v>
       </c>
       <c r="C41">
-        <v>4.344855401460828</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="E41">
-        <v>0.783759869098127</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F41">
-        <v>1.982800442813927</v>
+        <v>3.36213988129318</v>
       </c>
       <c r="G41">
-        <v>19.74961744159599</v>
+        <v>33.48848174879321</v>
       </c>
       <c r="H41">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I41">
-        <v>99.18091412713572</v>
+        <v>168.1763326503606</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>42.95240712919428</v>
+        <v>72.83234252341643</v>
       </c>
       <c r="C42">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D42">
-        <v>10.21077057921521</v>
+        <v>17.31391532997361</v>
       </c>
       <c r="F42">
-        <v>1.461010852599735</v>
+        <v>2.477366228321292</v>
       </c>
       <c r="G42">
-        <v>32.91602906932665</v>
+        <v>55.81413624798867</v>
       </c>
       <c r="I42">
-        <v>91.08047017967432</v>
+        <v>154.440797261187</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>53.12534565979293</v>
+        <v>90.0821078579097</v>
       </c>
       <c r="C43">
-        <v>2.413808556367127</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D43">
-        <v>7.941710450500715</v>
+        <v>13.46637858997948</v>
       </c>
       <c r="E43">
-        <v>3.135039476392508</v>
+        <v>5.315936503448163</v>
       </c>
       <c r="F43">
-        <v>1.461010852599735</v>
+        <v>2.477366228321292</v>
       </c>
       <c r="G43">
-        <v>41.69363682114709</v>
+        <v>70.69790591411896</v>
       </c>
       <c r="I43">
-        <v>109.7705518168001</v>
+        <v>186.1326748197914</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>87.78869176405496</v>
+        <v>148.859086034702</v>
       </c>
       <c r="C44">
-        <v>2.091967415518177</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D44">
-        <v>15.88342090100143</v>
+        <v>26.93275717995895</v>
       </c>
       <c r="E44">
-        <v>1.567519738196254</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F44">
-        <v>2.40023211498528</v>
+        <v>4.069958803670691</v>
       </c>
       <c r="G44">
-        <v>50.47124457296754</v>
+        <v>85.58167558024931</v>
       </c>
       <c r="I44">
-        <v>160.2030765067236</v>
+        <v>271.6486949461836</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>198.9374645983736</v>
+        <v>337.3287443189811</v>
       </c>
       <c r="C45">
-        <v>2.413808556367127</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D45">
-        <v>37.4394921237891</v>
+        <v>63.48435620990322</v>
       </c>
       <c r="E45">
-        <v>19.59399672745318</v>
+        <v>33.22460314655103</v>
       </c>
       <c r="F45">
-        <v>6.052759246484618</v>
+        <v>10.26337437447392</v>
       </c>
       <c r="G45">
-        <v>78.99846976638396</v>
+        <v>133.9539269951728</v>
       </c>
       <c r="H45">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I45">
-        <v>344.1685267756947</v>
+        <v>583.5901106196559</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>366.9793381038178</v>
+        <v>622.2693124369083</v>
       </c>
       <c r="C46">
-        <v>2.574729126791602</v>
+        <v>4.365845041081413</v>
       </c>
       <c r="D46">
-        <v>66.93727379707751</v>
+        <v>113.5023338298271</v>
       </c>
       <c r="E46">
-        <v>70.5383882188314</v>
+        <v>119.6085713275837</v>
       </c>
       <c r="F46">
-        <v>10.43579180428382</v>
+        <v>17.69547305943779</v>
       </c>
       <c r="G46">
-        <v>129.4697143393514</v>
+        <v>219.5356025754222</v>
       </c>
       <c r="H46">
-        <v>2.930143027372198</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I46">
-        <v>649.8653784175258</v>
+        <v>1101.9456416645</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>516.5592120537311</v>
+        <v>875.9047508737183</v>
       </c>
       <c r="C47">
-        <v>1.609205704244752</v>
+        <v>2.728653150675883</v>
       </c>
       <c r="D47">
-        <v>54.45744308914778</v>
+        <v>92.34088175985924</v>
       </c>
       <c r="E47">
-        <v>55.64695070596702</v>
+        <v>94.35787293620493</v>
       </c>
       <c r="F47">
-        <v>12.10551849296924</v>
+        <v>20.52674874894783</v>
       </c>
       <c r="G47">
-        <v>129.4697143393514</v>
+        <v>219.5356025754222</v>
       </c>
       <c r="H47">
-        <v>5.860286054744397</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I47">
-        <v>775.7083304401558</v>
+        <v>1315.331516833308</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>631.4757398993827</v>
+        <v>1070.763211133735</v>
       </c>
       <c r="C48">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D48">
-        <v>88.49334501986512</v>
+        <v>150.0539328597713</v>
       </c>
       <c r="E48">
-        <v>29.78287502572882</v>
+        <v>50.50139678275755</v>
       </c>
       <c r="F48">
-        <v>14.50575060795451</v>
+        <v>24.59670755261853</v>
       </c>
       <c r="G48">
-        <v>186.5241647261843</v>
+        <v>316.280105405269</v>
       </c>
       <c r="H48">
-        <v>7.325357568430495</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I48">
-        <v>961.6474853968843</v>
+        <v>1630.619649151238</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>475.4906824302032</v>
+        <v>806.266809338171</v>
       </c>
       <c r="C49">
-        <v>2.252887985942652</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D49">
-        <v>82.82069469807891</v>
+        <v>140.435091009786</v>
       </c>
       <c r="E49">
-        <v>63.48454939694828</v>
+        <v>107.6477141948253</v>
       </c>
       <c r="F49">
-        <v>16.48855105076843</v>
+        <v>27.95884743391172</v>
       </c>
       <c r="G49">
-        <v>298.4386635618948</v>
+        <v>506.0481686484306</v>
       </c>
       <c r="H49">
-        <v>14.65071513686099</v>
+        <v>24.84251697119907</v>
       </c>
       <c r="I49">
-        <v>953.6267442606973</v>
+        <v>1617.01926200727</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_CO.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>712.990300492392</v>
+        <v>419.4466402509669</v>
       </c>
       <c r="C2">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D2">
-        <v>63.48435620990322</v>
+        <v>37.34735227442783</v>
       </c>
       <c r="E2">
-        <v>54.4883491603437</v>
+        <v>32.05507139766711</v>
       </c>
       <c r="F2">
-        <v>34.86008192709242</v>
+        <v>20.50791467021984</v>
       </c>
       <c r="G2">
-        <v>669.7696349758644</v>
+        <v>394.020259376222</v>
       </c>
       <c r="H2">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I2">
-        <v>1549.048514788442</v>
+        <v>911.2931756084886</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>855.4605845513554</v>
+        <v>503.2607986523697</v>
       </c>
       <c r="C3">
-        <v>14.46186169858218</v>
+        <v>8.507800592876599</v>
       </c>
       <c r="D3">
-        <v>119.2736389398182</v>
+        <v>70.16775275801594</v>
       </c>
       <c r="E3">
-        <v>23.92171426551673</v>
+        <v>14.07295817458556</v>
       </c>
       <c r="F3">
-        <v>28.31275689510046</v>
+        <v>16.65617435144759</v>
       </c>
       <c r="G3">
-        <v>219.5356025754222</v>
+        <v>129.1510850177616</v>
       </c>
       <c r="H3">
-        <v>17.38976187983935</v>
+        <v>10.23026146390162</v>
       </c>
       <c r="I3">
-        <v>1278.355920805634</v>
+        <v>752.0468310109585</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>919.3486043087388</v>
+        <v>540.8456230476176</v>
       </c>
       <c r="C4">
-        <v>15.00759232871736</v>
+        <v>8.828849671853073</v>
       </c>
       <c r="D4">
-        <v>109.6547970898329</v>
+        <v>64.50906301946625</v>
       </c>
       <c r="E4">
-        <v>17.27679363620653</v>
+        <v>10.16380312608957</v>
       </c>
       <c r="F4">
-        <v>30.2592589316386</v>
+        <v>17.80128633810961</v>
       </c>
       <c r="G4">
-        <v>204.6518329092918</v>
+        <v>120.3950792538455</v>
       </c>
       <c r="H4">
-        <v>16.1476360312794</v>
+        <v>9.499528502194362</v>
       </c>
       <c r="I4">
-        <v>1312.346515235706</v>
+        <v>772.043232959176</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>904.0154795669667</v>
+        <v>531.8252651927585</v>
       </c>
       <c r="C5">
-        <v>13.37040043831183</v>
+        <v>7.865702434923646</v>
       </c>
       <c r="D5">
-        <v>98.11218686985048</v>
+        <v>57.71863533320664</v>
       </c>
       <c r="E5">
-        <v>25.25069839137877</v>
+        <v>14.85478918428476</v>
       </c>
       <c r="F5">
-        <v>35.74485558006432</v>
+        <v>21.02842011870258</v>
       </c>
       <c r="G5">
-        <v>212.0937177423569</v>
+        <v>124.7730821358035</v>
       </c>
       <c r="H5">
-        <v>16.1476360312794</v>
+        <v>9.499528502194362</v>
       </c>
       <c r="I5">
-        <v>1304.734974620208</v>
+        <v>767.5654229018739</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>933.4039686553631</v>
+        <v>549.1142844145722</v>
       </c>
       <c r="C6">
-        <v>14.46186169858218</v>
+        <v>8.507800592876599</v>
       </c>
       <c r="D6">
-        <v>123.1211756798124</v>
+        <v>72.43122865343578</v>
       </c>
       <c r="E6">
-        <v>25.25069839137877</v>
+        <v>14.85478918428476</v>
       </c>
       <c r="F6">
-        <v>31.14403258461052</v>
+        <v>18.32179178659236</v>
       </c>
       <c r="G6">
-        <v>171.1633511604986</v>
+        <v>100.6940662850344</v>
       </c>
       <c r="H6">
-        <v>11.17913263703958</v>
+        <v>6.576596655365329</v>
       </c>
       <c r="I6">
-        <v>1309.724220807285</v>
+        <v>770.5005575721615</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>955.7647755704467</v>
+        <v>562.2689729529091</v>
       </c>
       <c r="C7">
-        <v>13.09753512324424</v>
+        <v>7.705177895435409</v>
       </c>
       <c r="D7">
-        <v>134.6637858997947</v>
+        <v>79.22165633969544</v>
       </c>
       <c r="E7">
-        <v>38.5405396499992</v>
+        <v>22.67309928127673</v>
       </c>
       <c r="F7">
-        <v>26.72016431975106</v>
+        <v>15.71926454417866</v>
       </c>
       <c r="G7">
-        <v>145.1167542447705</v>
+        <v>85.37105619818142</v>
       </c>
       <c r="H7">
-        <v>17.38976187983935</v>
+        <v>10.23026146390162</v>
       </c>
       <c r="I7">
-        <v>1331.293316687846</v>
+        <v>783.1894886755783</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1054.152325996816</v>
+        <v>620.149602521591</v>
       </c>
       <c r="C8">
-        <v>14.18899638351459</v>
+        <v>8.347276053388359</v>
       </c>
       <c r="D8">
-        <v>117.3498705698211</v>
+        <v>69.03601481030606</v>
       </c>
       <c r="E8">
-        <v>46.51444440517142</v>
+        <v>27.36408533947192</v>
       </c>
       <c r="F8">
-        <v>26.36625485856232</v>
+        <v>15.51106236478556</v>
       </c>
       <c r="G8">
-        <v>93.02356041331444</v>
+        <v>54.72503602447523</v>
       </c>
       <c r="H8">
-        <v>29.81102036543889</v>
+        <v>17.53759108097421</v>
       </c>
       <c r="I8">
-        <v>1381.406472992639</v>
+        <v>812.6706681949922</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1170.428521955252</v>
+        <v>688.5539829209418</v>
       </c>
       <c r="C9">
-        <v>9.277420712298001</v>
+        <v>5.457834342600081</v>
       </c>
       <c r="D9">
-        <v>90.41711338986215</v>
+        <v>53.19168354236691</v>
       </c>
       <c r="E9">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F9">
-        <v>25.6584359361848</v>
+        <v>15.09465800599937</v>
       </c>
       <c r="G9">
-        <v>78.13979074718415</v>
+        <v>45.96903026055922</v>
       </c>
       <c r="H9">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I9">
-        <v>1453.139180628691</v>
+        <v>854.8704613664677</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1136.56787148384</v>
+        <v>668.6340259914604</v>
       </c>
       <c r="C10">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D10">
-        <v>75.02696642988565</v>
+        <v>44.13777996068745</v>
       </c>
       <c r="E10">
-        <v>95.68685706206693</v>
+        <v>56.29183269834224</v>
       </c>
       <c r="F10">
-        <v>13.80246898636148</v>
+        <v>8.119884996330702</v>
       </c>
       <c r="G10">
-        <v>66.97696349758642</v>
+        <v>39.40202593762218</v>
       </c>
       <c r="H10">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I10">
-        <v>1395.306290239787</v>
+        <v>820.8478224148914</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>801.1557677575805</v>
+        <v>471.3136979164088</v>
       </c>
       <c r="C11">
-        <v>5.184440986284177</v>
+        <v>3.049966250276516</v>
       </c>
       <c r="D11">
-        <v>65.40812457990029</v>
+        <v>38.47909022213777</v>
       </c>
       <c r="E11">
-        <v>74.42311104827431</v>
+        <v>43.78253654315508</v>
       </c>
       <c r="F11">
-        <v>7.078189223775116</v>
+        <v>4.164043587861896</v>
       </c>
       <c r="G11">
-        <v>40.93036658185835</v>
+        <v>24.07901585076911</v>
       </c>
       <c r="H11">
-        <v>3.726377545679861</v>
+        <v>2.192198885121776</v>
       </c>
       <c r="I11">
-        <v>997.9063777233525</v>
+        <v>587.060549255731</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>679.1296500209789</v>
+        <v>399.5266833214855</v>
       </c>
       <c r="C12">
-        <v>10.91461260270353</v>
+        <v>6.420981579529506</v>
       </c>
       <c r="D12">
-        <v>44.24667250993256</v>
+        <v>26.02997279732849</v>
       </c>
       <c r="E12">
-        <v>62.46225391551594</v>
+        <v>36.74605745586229</v>
       </c>
       <c r="F12">
-        <v>6.72427976258636</v>
+        <v>3.9558414084688</v>
       </c>
       <c r="G12">
-        <v>63.25602108105382</v>
+        <v>37.21302449664317</v>
       </c>
       <c r="H12">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I12">
-        <v>867.975615741331</v>
+        <v>510.6232940210249</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>544.9648085304755</v>
+        <v>320.5985520914649</v>
       </c>
       <c r="C13">
-        <v>8.18595945202765</v>
+        <v>4.81573618464713</v>
       </c>
       <c r="D13">
-        <v>34.62783065994721</v>
+        <v>20.37128305877881</v>
       </c>
       <c r="E13">
-        <v>53.15936503448165</v>
+        <v>31.27324038796791</v>
       </c>
       <c r="F13">
-        <v>3.893004073076315</v>
+        <v>2.290223973324045</v>
       </c>
       <c r="G13">
-        <v>40.93036658185835</v>
+        <v>24.07901585076911</v>
       </c>
       <c r="H13">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I13">
-        <v>688.2455860289866</v>
+        <v>404.8895174703663</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>413.3554878302666</v>
+        <v>243.1738138372541</v>
       </c>
       <c r="C14">
-        <v>9.277420712298001</v>
+        <v>5.457834342600081</v>
       </c>
       <c r="D14">
-        <v>28.85652554995602</v>
+        <v>16.97606921564902</v>
       </c>
       <c r="E14">
-        <v>17.27679363620653</v>
+        <v>10.16380312608957</v>
       </c>
       <c r="F14">
-        <v>2.477366228321292</v>
+        <v>1.457415255751664</v>
       </c>
       <c r="G14">
-        <v>26.04659691572804</v>
+        <v>15.32301008685306</v>
       </c>
       <c r="H14">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I14">
-        <v>498.5323167213364</v>
+        <v>293.2826788259047</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>258.7464800174003</v>
+        <v>152.2185388007541</v>
       </c>
       <c r="C15">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D15">
-        <v>23.08522043996481</v>
+        <v>13.58085537251922</v>
       </c>
       <c r="E15">
-        <v>11.96085713275837</v>
+        <v>7.03647908729278</v>
       </c>
       <c r="F15">
-        <v>4.069958803670691</v>
+        <v>2.394325063020589</v>
       </c>
       <c r="G15">
-        <v>44.65130899839094</v>
+        <v>26.26801729174812</v>
       </c>
       <c r="H15">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I15">
-        <v>349.758988172232</v>
+        <v>205.7604884457833</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>194.2195800624438</v>
+        <v>114.2578661615537</v>
       </c>
       <c r="C16">
-        <v>8.458824767095235</v>
+        <v>4.976260724135369</v>
       </c>
       <c r="D16">
-        <v>11.54261021998241</v>
+        <v>6.790427686259608</v>
       </c>
       <c r="E16">
-        <v>3.986952377586123</v>
+        <v>2.345493029097593</v>
       </c>
       <c r="F16">
-        <v>1.592592575349401</v>
+        <v>0.9369098072689267</v>
       </c>
       <c r="G16">
-        <v>29.76753933226063</v>
+        <v>17.51201152783208</v>
       </c>
       <c r="H16">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I16">
-        <v>250.8102251832776</v>
+        <v>147.5497018978545</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>123.9427583293226</v>
+        <v>72.91455932678095</v>
       </c>
       <c r="C17">
-        <v>9.550286027365589</v>
+        <v>5.618358882088319</v>
       </c>
       <c r="E17">
-        <v>1.328984125862041</v>
+        <v>0.7818310096991975</v>
       </c>
       <c r="F17">
-        <v>3.36213988129318</v>
+        <v>1.9779207042344</v>
       </c>
       <c r="G17">
-        <v>29.76753933226063</v>
+        <v>17.51201152783208</v>
       </c>
       <c r="H17">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I17">
-        <v>169.193833544664</v>
+        <v>99.53541441234222</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>74.11010291856405</v>
+        <v>43.59839629848761</v>
       </c>
       <c r="C18">
-        <v>7.91309413696006</v>
+        <v>4.655211645158892</v>
       </c>
       <c r="D18">
-        <v>11.54261021998241</v>
+        <v>6.790427686259608</v>
       </c>
       <c r="F18">
-        <v>2.477366228321292</v>
+        <v>1.457415255751664</v>
       </c>
       <c r="G18">
-        <v>52.09319383145608</v>
+        <v>30.64602017370613</v>
       </c>
       <c r="I18">
-        <v>148.1363673352839</v>
+        <v>87.14747105936391</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>91.9987484506312</v>
+        <v>54.12214712915702</v>
       </c>
       <c r="C19">
-        <v>5.184440986284177</v>
+        <v>3.049966250276516</v>
       </c>
       <c r="D19">
-        <v>9.618841849985337</v>
+        <v>5.658689738549674</v>
       </c>
       <c r="E19">
-        <v>5.315936503448163</v>
+        <v>3.12732403879679</v>
       </c>
       <c r="F19">
-        <v>2.477366228321292</v>
+        <v>1.457415255751664</v>
       </c>
       <c r="G19">
-        <v>63.25602108105382</v>
+        <v>37.21302449664317</v>
       </c>
       <c r="I19">
-        <v>177.851355099724</v>
+        <v>104.6285669091749</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>152.053487022571</v>
+        <v>89.45188206069011</v>
       </c>
       <c r="C20">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D20">
-        <v>19.23768369997067</v>
+        <v>11.31737947709935</v>
       </c>
       <c r="E20">
-        <v>2.657968251724081</v>
+        <v>1.563662019398395</v>
       </c>
       <c r="F20">
-        <v>4.24691353426507</v>
+        <v>2.498426152717139</v>
       </c>
       <c r="G20">
-        <v>78.13979074718415</v>
+        <v>45.96903026055922</v>
       </c>
       <c r="I20">
-        <v>260.974553611864</v>
+        <v>153.5292971417643</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>344.3564264922932</v>
+        <v>202.5822034903864</v>
       </c>
       <c r="C21">
-        <v>5.184440986284177</v>
+        <v>3.049966250276516</v>
       </c>
       <c r="D21">
-        <v>44.24667250993256</v>
+        <v>26.02997279732849</v>
       </c>
       <c r="E21">
-        <v>34.55358727241307</v>
+        <v>20.32760625217914</v>
       </c>
       <c r="F21">
-        <v>10.61728383566267</v>
+        <v>6.246065381792844</v>
       </c>
       <c r="G21">
-        <v>122.791099745575</v>
+        <v>72.23704755230735</v>
       </c>
       <c r="H21">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I21">
-        <v>562.9916366907206</v>
+        <v>331.203594685978</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>635.0469163883847</v>
+        <v>373.5931544887645</v>
       </c>
       <c r="C22">
-        <v>5.730171616419355</v>
+        <v>3.371015329252991</v>
       </c>
       <c r="D22">
-        <v>78.8745031698798</v>
+        <v>46.40125585610728</v>
       </c>
       <c r="E22">
-        <v>123.5955237051698</v>
+        <v>72.7102839020254</v>
       </c>
       <c r="F22">
-        <v>18.22633725122091</v>
+        <v>10.72241223874438</v>
       </c>
       <c r="G22">
-        <v>200.9308904927592</v>
+        <v>118.2060778128665</v>
       </c>
       <c r="H22">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I22">
-        <v>1067.372846018074</v>
+        <v>627.9271314745901</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>893.7933964057854</v>
+        <v>525.8116932895183</v>
       </c>
       <c r="C23">
-        <v>3.547249095878647</v>
+        <v>2.08681901334709</v>
       </c>
       <c r="D23">
-        <v>63.48435620990322</v>
+        <v>37.34735227442783</v>
       </c>
       <c r="E23">
-        <v>97.01584118792904</v>
+        <v>57.07366370804146</v>
       </c>
       <c r="F23">
-        <v>21.05761294073096</v>
+        <v>12.38802967388914</v>
       </c>
       <c r="G23">
-        <v>200.9308904927592</v>
+        <v>118.2060778128665</v>
       </c>
       <c r="H23">
-        <v>8.694880939919676</v>
+        <v>5.11513073195081</v>
       </c>
       <c r="I23">
-        <v>1288.524227272906</v>
+        <v>758.0287665040411</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1092.485137851246</v>
+        <v>642.7004971587397</v>
       </c>
       <c r="C24">
-        <v>7.640228821892469</v>
+        <v>4.494687105670655</v>
       </c>
       <c r="D24">
-        <v>103.8834919798417</v>
+        <v>61.11384917633645</v>
       </c>
       <c r="E24">
-        <v>51.8303809086196</v>
+        <v>30.49140937826871</v>
       </c>
       <c r="F24">
-        <v>25.30452647499604</v>
+        <v>14.88645582660628</v>
       </c>
       <c r="G24">
-        <v>290.233508489541</v>
+        <v>170.7421123963628</v>
       </c>
       <c r="H24">
-        <v>11.17913263703958</v>
+        <v>6.576596655365329</v>
       </c>
       <c r="I24">
-        <v>1582.556407163176</v>
+        <v>931.0056076973499</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>822.8776944750905</v>
+        <v>484.0925382107935</v>
       </c>
       <c r="C25">
-        <v>4.91157567121659</v>
+        <v>2.889441710788279</v>
       </c>
       <c r="D25">
-        <v>98.11218686985048</v>
+        <v>57.71863533320664</v>
       </c>
       <c r="E25">
-        <v>110.3056824465494</v>
+        <v>64.8919738050334</v>
       </c>
       <c r="F25">
-        <v>28.66666635628921</v>
+        <v>16.86437653084068</v>
       </c>
       <c r="G25">
-        <v>465.1178020665722</v>
+        <v>273.6251801223763</v>
       </c>
       <c r="H25">
-        <v>22.35826527407917</v>
+        <v>13.15319331073066</v>
       </c>
       <c r="I25">
-        <v>1552.349873159647</v>
+        <v>913.2353390237695</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>698.9349361457674</v>
+        <v>411.1779788840122</v>
       </c>
       <c r="C26">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D26">
-        <v>92.34088175985924</v>
+        <v>54.32342149007686</v>
       </c>
       <c r="E26">
-        <v>53.15936503448165</v>
+        <v>31.27324038796791</v>
       </c>
       <c r="F26">
-        <v>33.97530827412056</v>
+        <v>19.98740922173711</v>
       </c>
       <c r="G26">
-        <v>729.3047136403851</v>
+        <v>429.044282431886</v>
       </c>
       <c r="H26">
-        <v>8.694880939919676</v>
+        <v>5.11513073195081</v>
       </c>
       <c r="I26">
-        <v>1621.048796150683</v>
+        <v>953.650380318931</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>838.2108192168619</v>
+        <v>493.1128960656529</v>
       </c>
       <c r="C27">
-        <v>11.18747791777112</v>
+        <v>6.581506119017746</v>
       </c>
       <c r="D27">
-        <v>171.215384929739</v>
+        <v>100.7246773461841</v>
       </c>
       <c r="E27">
-        <v>22.59273013965469</v>
+        <v>13.29112716488636</v>
       </c>
       <c r="F27">
-        <v>27.60493797272295</v>
+        <v>16.2397699926614</v>
       </c>
       <c r="G27">
-        <v>238.1403146580851</v>
+        <v>140.0960922226567</v>
       </c>
       <c r="H27">
-        <v>18.63188772839931</v>
+        <v>10.96099442560888</v>
       </c>
       <c r="I27">
-        <v>1327.583552563234</v>
+        <v>781.0070633366681</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>900.8210785790975</v>
+        <v>529.9460239729958</v>
       </c>
       <c r="C28">
-        <v>11.46034323283871</v>
+        <v>6.742030658505982</v>
       </c>
       <c r="D28">
-        <v>157.7490063397596</v>
+        <v>92.80251171221457</v>
       </c>
       <c r="E28">
-        <v>17.27679363620653</v>
+        <v>10.16380312608957</v>
       </c>
       <c r="F28">
-        <v>29.55144000926111</v>
+        <v>17.38488197932342</v>
       </c>
       <c r="G28">
-        <v>223.2565449919547</v>
+        <v>131.3400864587406</v>
       </c>
       <c r="H28">
-        <v>17.38976187983935</v>
+        <v>10.23026146390162</v>
       </c>
       <c r="I28">
-        <v>1357.504968668957</v>
+        <v>798.6095993717715</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>886.1268340348993</v>
+        <v>521.3015143620888</v>
       </c>
       <c r="C29">
-        <v>10.36888197256835</v>
+        <v>6.099932500553033</v>
       </c>
       <c r="D29">
-        <v>140.435091009786</v>
+        <v>82.6168701828252</v>
       </c>
       <c r="E29">
-        <v>23.92171426551673</v>
+        <v>14.07295817458556</v>
       </c>
       <c r="F29">
-        <v>34.86008192709242</v>
+        <v>20.50791467021984</v>
       </c>
       <c r="G29">
-        <v>230.6984298250197</v>
+        <v>135.7180893406986</v>
       </c>
       <c r="H29">
-        <v>17.38976187983935</v>
+        <v>10.23026146390162</v>
       </c>
       <c r="I29">
-        <v>1343.800794914722</v>
+        <v>790.5475406948726</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>914.8764429257218</v>
+        <v>538.2146853399504</v>
       </c>
       <c r="C30">
-        <v>11.18747791777112</v>
+        <v>6.581506119017746</v>
       </c>
       <c r="D30">
-        <v>176.9866900397302</v>
+        <v>104.119891189314</v>
       </c>
       <c r="E30">
-        <v>23.92171426551673</v>
+        <v>14.07295817458556</v>
       </c>
       <c r="F30">
-        <v>30.43621366223299</v>
+        <v>17.90538742780615</v>
       </c>
       <c r="G30">
-        <v>186.0471208266289</v>
+        <v>109.4500720489505</v>
       </c>
       <c r="H30">
-        <v>12.42125848559954</v>
+        <v>7.307329617072588</v>
       </c>
       <c r="I30">
-        <v>1355.876918123201</v>
+        <v>797.6518299166969</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>936.5983696432319</v>
+        <v>550.9935256343344</v>
       </c>
       <c r="C31">
-        <v>10.09601665750077</v>
+        <v>5.939407961064796</v>
       </c>
       <c r="D31">
-        <v>194.3006053697038</v>
+        <v>114.3055327187034</v>
       </c>
       <c r="E31">
-        <v>37.21155552413715</v>
+        <v>21.89126827157754</v>
       </c>
       <c r="F31">
-        <v>26.01234539737355</v>
+        <v>15.30286018539247</v>
       </c>
       <c r="G31">
-        <v>156.2795814943683</v>
+        <v>91.93806052111844</v>
       </c>
       <c r="H31">
-        <v>18.63188772839931</v>
+        <v>10.96099442560888</v>
       </c>
       <c r="I31">
-        <v>1379.130361814715</v>
+        <v>811.3316497178</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1033.06927947688</v>
+        <v>607.746610471159</v>
       </c>
       <c r="C32">
-        <v>10.91461260270353</v>
+        <v>6.420981579529506</v>
       </c>
       <c r="D32">
-        <v>169.291616559742</v>
+        <v>99.59293939847421</v>
       </c>
       <c r="E32">
-        <v>45.18546027930938</v>
+        <v>26.58225432977272</v>
       </c>
       <c r="F32">
-        <v>25.6584359361848</v>
+        <v>15.09465800599937</v>
       </c>
       <c r="G32">
-        <v>100.4654452463796</v>
+        <v>59.10303890643327</v>
       </c>
       <c r="H32">
-        <v>32.29527206255881</v>
+        <v>18.99905700438872</v>
       </c>
       <c r="I32">
-        <v>1416.880122163758</v>
+        <v>833.5395396957568</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1146.789954645022</v>
+        <v>674.6475978947004</v>
       </c>
       <c r="C33">
-        <v>7.094498191757294</v>
+        <v>4.17363802669418</v>
       </c>
       <c r="D33">
-        <v>130.8162491598006</v>
+        <v>76.95818044427554</v>
       </c>
       <c r="E33">
-        <v>69.10717454482614</v>
+        <v>40.65521250435829</v>
       </c>
       <c r="F33">
-        <v>24.95061701380728</v>
+        <v>14.67825364721319</v>
       </c>
       <c r="G33">
-        <v>85.58167558024931</v>
+        <v>50.34703314251721</v>
       </c>
       <c r="H33">
-        <v>8.694880939919676</v>
+        <v>5.11513073195081</v>
       </c>
       <c r="I33">
-        <v>1473.035050075382</v>
+        <v>866.5750463917096</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1113.568184371182</v>
+        <v>655.1034892091715</v>
       </c>
       <c r="C34">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D34">
-        <v>107.7310287198358</v>
+        <v>63.37732507175632</v>
       </c>
       <c r="E34">
-        <v>93.02888881034285</v>
+        <v>54.72817067894384</v>
       </c>
       <c r="F34">
-        <v>13.44855952517272</v>
+        <v>7.9116828169376</v>
       </c>
       <c r="G34">
-        <v>74.41884833065154</v>
+        <v>43.78002881958021</v>
       </c>
       <c r="H34">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I34">
-        <v>1408.076345961894</v>
+        <v>828.3603467293968</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>785.1837628182343</v>
+        <v>461.9174918175972</v>
       </c>
       <c r="C35">
-        <v>4.092979726013825</v>
+        <v>2.407868092323565</v>
       </c>
       <c r="D35">
-        <v>94.26465012985629</v>
+        <v>55.45515943778679</v>
       </c>
       <c r="E35">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F35">
-        <v>6.901234493180739</v>
+        <v>4.059942498165351</v>
       </c>
       <c r="G35">
-        <v>44.65130899839094</v>
+        <v>26.26801729174812</v>
       </c>
       <c r="H35">
-        <v>3.726377545679861</v>
+        <v>2.192198885121776</v>
       </c>
       <c r="I35">
-        <v>1010.585456507906</v>
+        <v>594.5195525464994</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>665.7131658719286</v>
+        <v>391.6338701984835</v>
       </c>
       <c r="C36">
-        <v>8.458824767095235</v>
+        <v>4.976260724135369</v>
       </c>
       <c r="D36">
-        <v>63.48435620990322</v>
+        <v>37.34735227442783</v>
       </c>
       <c r="E36">
-        <v>61.1332697896539</v>
+        <v>35.96422644616311</v>
       </c>
       <c r="F36">
-        <v>6.547325031991981</v>
+        <v>3.851740318772255</v>
       </c>
       <c r="G36">
-        <v>70.69790591411896</v>
+        <v>41.59102737860121</v>
       </c>
       <c r="H36">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I36">
-        <v>877.2769734332519</v>
+        <v>516.0952103022906</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>534.10384517172</v>
+        <v>314.2091319442727</v>
       </c>
       <c r="C37">
-        <v>6.27590224655453</v>
+        <v>3.692064408229467</v>
       </c>
       <c r="D37">
-        <v>50.01797761992377</v>
+        <v>29.42518664045829</v>
       </c>
       <c r="E37">
-        <v>51.8303809086196</v>
+        <v>30.49140937826871</v>
       </c>
       <c r="F37">
-        <v>3.716049342481937</v>
+        <v>2.186122883627495</v>
       </c>
       <c r="G37">
-        <v>44.65130899839094</v>
+        <v>26.26801729174812</v>
       </c>
       <c r="H37">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I37">
-        <v>693.0797159848107</v>
+        <v>407.7333984700193</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>405.0500452618068</v>
+        <v>238.2877866658719</v>
       </c>
       <c r="C38">
-        <v>7.094498191757294</v>
+        <v>4.17363802669418</v>
       </c>
       <c r="D38">
-        <v>42.32290413993551</v>
+        <v>24.89823484961855</v>
       </c>
       <c r="E38">
-        <v>17.27679363620653</v>
+        <v>10.16380312608957</v>
       </c>
       <c r="F38">
-        <v>2.477366228321292</v>
+        <v>1.457415255751664</v>
       </c>
       <c r="G38">
-        <v>29.76753933226063</v>
+        <v>17.51201152783208</v>
       </c>
       <c r="H38">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I38">
-        <v>505.2312726388481</v>
+        <v>297.2236224135652</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>253.6354384368098</v>
+        <v>149.2117528491343</v>
       </c>
       <c r="C39">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D39">
-        <v>32.70406228995014</v>
+        <v>19.23954511106889</v>
       </c>
       <c r="E39">
-        <v>11.96085713275837</v>
+        <v>7.03647908729278</v>
       </c>
       <c r="F39">
-        <v>3.893004073076315</v>
+        <v>2.290223973324045</v>
       </c>
       <c r="G39">
-        <v>48.3722514149235</v>
+        <v>28.45701873272713</v>
       </c>
       <c r="H39">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I39">
-        <v>356.4464495522271</v>
+        <v>209.6946698865544</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>190.3862988770007</v>
+        <v>112.0027766978388</v>
       </c>
       <c r="C40">
-        <v>6.548767561622118</v>
+        <v>3.852588947717705</v>
       </c>
       <c r="D40">
-        <v>17.31391532997361</v>
+        <v>10.18564152938941</v>
       </c>
       <c r="E40">
-        <v>3.986952377586123</v>
+        <v>2.345493029097593</v>
       </c>
       <c r="F40">
-        <v>1.592592575349401</v>
+        <v>0.9369098072689267</v>
       </c>
       <c r="G40">
-        <v>33.48848174879321</v>
+        <v>19.70101296881109</v>
       </c>
       <c r="H40">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I40">
-        <v>254.5591343188852</v>
+        <v>149.7551559418308</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>121.3872375390274</v>
+        <v>71.41116635097107</v>
       </c>
       <c r="C41">
-        <v>7.367363506824884</v>
+        <v>4.334162566182417</v>
       </c>
       <c r="E41">
-        <v>1.328984125862041</v>
+        <v>0.7818310096991975</v>
       </c>
       <c r="F41">
-        <v>3.36213988129318</v>
+        <v>1.9779207042344</v>
       </c>
       <c r="G41">
-        <v>33.48848174879321</v>
+        <v>19.70101296881109</v>
       </c>
       <c r="H41">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I41">
-        <v>168.1763326503606</v>
+        <v>98.93682656160544</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>72.83234252341643</v>
+        <v>42.84669981058265</v>
       </c>
       <c r="C42">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D42">
-        <v>17.31391532997361</v>
+        <v>10.18564152938941</v>
       </c>
       <c r="F42">
-        <v>2.477366228321292</v>
+        <v>1.457415255751664</v>
       </c>
       <c r="G42">
-        <v>55.81413624798867</v>
+        <v>32.83502161468515</v>
       </c>
       <c r="I42">
-        <v>154.440797261187</v>
+        <v>90.8563180791501</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>90.0821078579097</v>
+        <v>52.99460239729957</v>
       </c>
       <c r="C43">
-        <v>4.092979726013825</v>
+        <v>2.407868092323565</v>
       </c>
       <c r="D43">
-        <v>13.46637858997948</v>
+        <v>7.922165633969541</v>
       </c>
       <c r="E43">
-        <v>5.315936503448163</v>
+        <v>3.12732403879679</v>
       </c>
       <c r="F43">
-        <v>2.477366228321292</v>
+        <v>1.457415255751664</v>
       </c>
       <c r="G43">
-        <v>70.69790591411896</v>
+        <v>41.59102737860121</v>
       </c>
       <c r="I43">
-        <v>186.1326748197914</v>
+        <v>109.5004027967423</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>148.859086034702</v>
+        <v>87.5726408409277</v>
       </c>
       <c r="C44">
-        <v>3.547249095878647</v>
+        <v>2.08681901334709</v>
       </c>
       <c r="D44">
-        <v>26.93275717995895</v>
+        <v>15.84433126793908</v>
       </c>
       <c r="E44">
-        <v>2.657968251724081</v>
+        <v>1.563662019398395</v>
       </c>
       <c r="F44">
-        <v>4.069958803670691</v>
+        <v>2.394325063020589</v>
       </c>
       <c r="G44">
-        <v>85.58167558024931</v>
+        <v>50.34703314251721</v>
       </c>
       <c r="I44">
-        <v>271.6486949461836</v>
+        <v>159.8088113471501</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>337.3287443189811</v>
+        <v>198.4478728069091</v>
       </c>
       <c r="C45">
-        <v>4.092979726013825</v>
+        <v>2.407868092323565</v>
       </c>
       <c r="D45">
-        <v>63.48435620990322</v>
+        <v>37.34735227442783</v>
       </c>
       <c r="E45">
-        <v>33.22460314655103</v>
+        <v>19.54577524247994</v>
       </c>
       <c r="F45">
-        <v>10.26337437447392</v>
+        <v>6.037863202399749</v>
       </c>
       <c r="G45">
-        <v>133.9539269951728</v>
+        <v>78.80405187524435</v>
       </c>
       <c r="H45">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I45">
-        <v>583.5901106196559</v>
+        <v>343.3215164554917</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>622.2693124369083</v>
+        <v>366.0761896097151</v>
       </c>
       <c r="C46">
-        <v>4.365845041081413</v>
+        <v>2.568392631811804</v>
       </c>
       <c r="D46">
-        <v>113.5023338298271</v>
+        <v>66.77253891488617</v>
       </c>
       <c r="E46">
-        <v>119.6085713275837</v>
+        <v>70.36479087292781</v>
       </c>
       <c r="F46">
-        <v>17.69547305943779</v>
+        <v>10.41010896965474</v>
       </c>
       <c r="G46">
-        <v>219.5356025754222</v>
+        <v>129.1510850177616</v>
       </c>
       <c r="H46">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I46">
-        <v>1101.9456416645</v>
+        <v>648.2660378635861</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>875.9047508737183</v>
+        <v>515.2879424588492</v>
       </c>
       <c r="C47">
-        <v>2.728653150675883</v>
+        <v>1.605245394882377</v>
       </c>
       <c r="D47">
-        <v>92.34088175985924</v>
+        <v>54.32342149007686</v>
       </c>
       <c r="E47">
-        <v>94.35787293620493</v>
+        <v>55.51000168864304</v>
       </c>
       <c r="F47">
-        <v>20.52674874894783</v>
+        <v>12.0757264047995</v>
       </c>
       <c r="G47">
-        <v>219.5356025754222</v>
+        <v>129.1510850177616</v>
       </c>
       <c r="H47">
-        <v>9.937006788479632</v>
+        <v>5.845863693658069</v>
       </c>
       <c r="I47">
-        <v>1315.331516833308</v>
+        <v>773.7992861486706</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1070.763211133735</v>
+        <v>629.921656864355</v>
       </c>
       <c r="C48">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D48">
-        <v>150.0539328597713</v>
+        <v>88.27555992137491</v>
       </c>
       <c r="E48">
-        <v>50.50139678275755</v>
+        <v>29.70957836856952</v>
       </c>
       <c r="F48">
-        <v>24.59670755261853</v>
+        <v>14.47005146782009</v>
       </c>
       <c r="G48">
-        <v>316.280105405269</v>
+        <v>186.0651224832158</v>
       </c>
       <c r="H48">
-        <v>12.42125848559954</v>
+        <v>7.307329617072588</v>
       </c>
       <c r="I48">
-        <v>1630.619649151238</v>
+        <v>959.2808385911492</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>806.266809338171</v>
+        <v>474.3204838680286</v>
       </c>
       <c r="C49">
-        <v>3.820114410946235</v>
+        <v>2.247343552835328</v>
       </c>
       <c r="D49">
-        <v>140.435091009786</v>
+        <v>82.6168701828252</v>
       </c>
       <c r="E49">
-        <v>107.6477141948253</v>
+        <v>63.32831178563502</v>
       </c>
       <c r="F49">
-        <v>27.95884743391172</v>
+        <v>16.44797217205449</v>
       </c>
       <c r="G49">
-        <v>506.0481686484306</v>
+        <v>297.7041959731454</v>
       </c>
       <c r="H49">
-        <v>24.84251697119907</v>
+        <v>14.61465923414518</v>
       </c>
       <c r="I49">
-        <v>1617.01926200727</v>
+        <v>951.2798367686693</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_CO.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>419.4466402509669</v>
+        <v>642.9793178015474</v>
       </c>
       <c r="C2">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D2">
-        <v>37.34735227442783</v>
+        <v>63.44423129217784</v>
       </c>
       <c r="E2">
-        <v>32.05507139766711</v>
+        <v>54.4883491603437</v>
       </c>
       <c r="F2">
-        <v>20.50791467021984</v>
+        <v>34.74382331021336</v>
       </c>
       <c r="G2">
-        <v>394.020259376222</v>
+        <v>669.6467384795635</v>
       </c>
       <c r="H2">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I2">
-        <v>911.2931756084886</v>
+        <v>1478.758252066692</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>503.2607986523697</v>
+        <v>771.4599520934331</v>
       </c>
       <c r="C3">
-        <v>8.507800592876599</v>
+        <v>14.46186169858218</v>
       </c>
       <c r="D3">
-        <v>70.16775275801594</v>
+        <v>119.1982527307583</v>
       </c>
       <c r="E3">
-        <v>14.07295817458556</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F3">
-        <v>16.65617435144759</v>
+        <v>28.21833365296517</v>
       </c>
       <c r="G3">
-        <v>129.1510850177616</v>
+        <v>219.4953198349681</v>
       </c>
       <c r="H3">
-        <v>10.23026146390162</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I3">
-        <v>752.0468310109585</v>
+        <v>1194.145196156063</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>540.8456230476176</v>
+        <v>829.0745863050415</v>
       </c>
       <c r="C4">
-        <v>8.828849671853073</v>
+        <v>15.00759232871736</v>
       </c>
       <c r="D4">
-        <v>64.50906301946625</v>
+        <v>109.5854904137617</v>
       </c>
       <c r="E4">
-        <v>10.16380312608957</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F4">
-        <v>17.80128633810961</v>
+        <v>30.15834409160652</v>
       </c>
       <c r="G4">
-        <v>120.3950792538455</v>
+        <v>204.6142812020888</v>
       </c>
       <c r="H4">
-        <v>9.499528502194362</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I4">
-        <v>772.043232959176</v>
+        <v>1221.864724008702</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>531.8252651927585</v>
+        <v>815.2470740942558</v>
       </c>
       <c r="C5">
-        <v>7.865702434923646</v>
+        <v>13.37040043831183</v>
       </c>
       <c r="D5">
-        <v>57.71863533320664</v>
+        <v>98.05017563336571</v>
       </c>
       <c r="E5">
-        <v>14.85478918428476</v>
+        <v>25.25069839137877</v>
       </c>
       <c r="F5">
-        <v>21.02842011870258</v>
+        <v>35.62564623686854</v>
       </c>
       <c r="G5">
-        <v>124.7730821358035</v>
+        <v>212.0548005185284</v>
       </c>
       <c r="H5">
-        <v>9.499528502194362</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I5">
-        <v>767.5654229018739</v>
+        <v>1215.746431343989</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>549.1142844145722</v>
+        <v>841.7498058315958</v>
       </c>
       <c r="C6">
-        <v>8.507800592876599</v>
+        <v>14.46186169858218</v>
       </c>
       <c r="D6">
-        <v>72.43122865343578</v>
+        <v>123.043357657557</v>
       </c>
       <c r="E6">
-        <v>14.85478918428476</v>
+        <v>25.25069839137877</v>
       </c>
       <c r="F6">
-        <v>18.32179178659236</v>
+        <v>31.0401670182617</v>
       </c>
       <c r="G6">
-        <v>100.6940662850344</v>
+        <v>171.1319442781107</v>
       </c>
       <c r="H6">
-        <v>6.576596655365329</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I6">
-        <v>770.5005575721615</v>
+        <v>1217.856967512526</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>562.2689729529091</v>
+        <v>861.9149278056582</v>
       </c>
       <c r="C7">
-        <v>7.705177895435409</v>
+        <v>13.09753512324424</v>
       </c>
       <c r="D7">
-        <v>79.22165633969544</v>
+        <v>134.5786724379529</v>
       </c>
       <c r="E7">
-        <v>22.67309928127673</v>
+        <v>38.5405396499992</v>
       </c>
       <c r="F7">
-        <v>15.71926454417866</v>
+        <v>26.6310523849859</v>
       </c>
       <c r="G7">
-        <v>85.37105619818142</v>
+        <v>145.0901266705721</v>
       </c>
       <c r="H7">
-        <v>10.23026146390162</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I7">
-        <v>783.1894886755783</v>
+        <v>1237.242615952252</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>620.149602521591</v>
+        <v>950.6414644915353</v>
       </c>
       <c r="C8">
-        <v>8.347276053388359</v>
+        <v>14.18899638351459</v>
       </c>
       <c r="D8">
-        <v>69.03601481030606</v>
+        <v>117.275700267359</v>
       </c>
       <c r="E8">
-        <v>27.36408533947192</v>
+        <v>46.51444440517142</v>
       </c>
       <c r="F8">
-        <v>15.51106236478556</v>
+        <v>26.27832321432382</v>
       </c>
       <c r="G8">
-        <v>54.72503602447523</v>
+        <v>93.0064914554949</v>
       </c>
       <c r="H8">
-        <v>17.53759108097421</v>
+        <v>29.81102036543889</v>
       </c>
       <c r="I8">
-        <v>812.6706681949922</v>
+        <v>1277.716440582838</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>688.5539829209418</v>
+        <v>1055.500098756662</v>
       </c>
       <c r="C9">
-        <v>5.457834342600081</v>
+        <v>9.277420712298001</v>
       </c>
       <c r="D9">
-        <v>53.19168354236691</v>
+        <v>90.35996577976837</v>
       </c>
       <c r="E9">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F9">
-        <v>15.09465800599937</v>
+        <v>25.57286487299969</v>
       </c>
       <c r="G9">
-        <v>45.96903026055922</v>
+        <v>78.12545282261574</v>
       </c>
       <c r="H9">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I9">
-        <v>854.8704613664677</v>
+        <v>1338.053700832253</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>668.6340259914604</v>
+        <v>1024.96434262451</v>
       </c>
       <c r="C10">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D10">
-        <v>44.13777996068745</v>
+        <v>74.97954607257377</v>
       </c>
       <c r="E10">
-        <v>56.29183269834224</v>
+        <v>95.68685706206693</v>
       </c>
       <c r="F10">
-        <v>8.119884996330702</v>
+        <v>13.75643765582053</v>
       </c>
       <c r="G10">
-        <v>39.40202593762218</v>
+        <v>66.96467384795636</v>
       </c>
       <c r="H10">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I10">
-        <v>820.8478224148914</v>
+        <v>1283.597020042974</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>471.3136979164088</v>
+        <v>722.4875130135666</v>
       </c>
       <c r="C11">
-        <v>3.049966250276516</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D11">
-        <v>38.47909022213777</v>
+        <v>65.36678375557715</v>
       </c>
       <c r="E11">
-        <v>43.78253654315508</v>
+        <v>74.42311104827431</v>
       </c>
       <c r="F11">
-        <v>4.164043587861896</v>
+        <v>7.054583413241294</v>
       </c>
       <c r="G11">
-        <v>24.07901585076911</v>
+        <v>40.92285624041777</v>
       </c>
       <c r="H11">
-        <v>2.192198885121776</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I11">
-        <v>587.060549255731</v>
+        <v>919.1656660030411</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>399.5266833214855</v>
+        <v>612.4435616693949</v>
       </c>
       <c r="C12">
-        <v>6.420981579529506</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D12">
-        <v>26.02997279732849</v>
+        <v>44.21870665818455</v>
       </c>
       <c r="E12">
-        <v>36.74605745586229</v>
+        <v>62.46225391551594</v>
       </c>
       <c r="F12">
-        <v>3.9558414084688</v>
+        <v>6.70185424257923</v>
       </c>
       <c r="G12">
-        <v>37.21302449664317</v>
+        <v>63.24441418973654</v>
       </c>
       <c r="H12">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I12">
-        <v>510.6232940210249</v>
+        <v>801.2275291266745</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>320.5985520914649</v>
+        <v>491.452829825018</v>
       </c>
       <c r="C13">
-        <v>4.81573618464713</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D13">
-        <v>20.37128305877881</v>
+        <v>34.6059443411879</v>
       </c>
       <c r="E13">
-        <v>31.27324038796791</v>
+        <v>53.15936503448165</v>
       </c>
       <c r="F13">
-        <v>2.290223973324045</v>
+        <v>3.880020877282713</v>
       </c>
       <c r="G13">
-        <v>24.07901585076911</v>
+        <v>40.92285624041777</v>
       </c>
       <c r="H13">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I13">
-        <v>404.8895174703663</v>
+        <v>634.6912274675357</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>243.1738138372541</v>
+        <v>372.7666833491048</v>
       </c>
       <c r="C14">
-        <v>5.457834342600081</v>
+        <v>9.277420712298001</v>
       </c>
       <c r="D14">
-        <v>16.97606921564902</v>
+        <v>28.83828695098993</v>
       </c>
       <c r="E14">
-        <v>10.16380312608957</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F14">
-        <v>1.457415255751664</v>
+        <v>2.469104194634452</v>
       </c>
       <c r="G14">
-        <v>15.32301008685306</v>
+        <v>26.04181760753858</v>
       </c>
       <c r="H14">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I14">
-        <v>293.2826788259047</v>
+        <v>457.9122322993322</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>152.2185388007541</v>
+        <v>233.3392685570131</v>
       </c>
       <c r="C15">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D15">
-        <v>13.58085537251922</v>
+        <v>23.07062956079194</v>
       </c>
       <c r="E15">
-        <v>7.03647908729278</v>
+        <v>11.96085713275837</v>
       </c>
       <c r="F15">
-        <v>2.394325063020589</v>
+        <v>4.056385462613744</v>
       </c>
       <c r="G15">
-        <v>26.26801729174812</v>
+        <v>44.64311589863757</v>
       </c>
       <c r="H15">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I15">
-        <v>205.7604884457833</v>
+        <v>324.3154193918616</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>114.2578661615537</v>
+        <v>175.1484880032889</v>
       </c>
       <c r="C16">
-        <v>4.976260724135369</v>
+        <v>8.458824767095235</v>
       </c>
       <c r="D16">
-        <v>6.790427686259608</v>
+        <v>11.53531478039597</v>
       </c>
       <c r="E16">
-        <v>2.345493029097593</v>
+        <v>3.986952377586123</v>
       </c>
       <c r="F16">
-        <v>0.9369098072689267</v>
+        <v>1.587281267979291</v>
       </c>
       <c r="G16">
-        <v>17.51201152783208</v>
+        <v>29.76207726575839</v>
       </c>
       <c r="H16">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I16">
-        <v>147.5497018978545</v>
+        <v>231.7210643106639</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>72.91455932678095</v>
+        <v>111.7723903705199</v>
       </c>
       <c r="C17">
-        <v>5.618358882088319</v>
+        <v>9.550286027365589</v>
       </c>
       <c r="E17">
-        <v>0.7818310096991975</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F17">
-        <v>1.9779207042344</v>
+        <v>3.350927121289615</v>
       </c>
       <c r="G17">
-        <v>17.51201152783208</v>
+        <v>29.76207726575839</v>
       </c>
       <c r="H17">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I17">
-        <v>99.53541441234222</v>
+        <v>157.0067907593555</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>43.59839629848761</v>
+        <v>66.83297568546548</v>
       </c>
       <c r="C18">
-        <v>4.655211645158892</v>
+        <v>7.91309413696006</v>
       </c>
       <c r="D18">
-        <v>6.790427686259608</v>
+        <v>11.53531478039597</v>
       </c>
       <c r="F18">
-        <v>1.457415255751664</v>
+        <v>2.469104194634452</v>
       </c>
       <c r="G18">
-        <v>30.64602017370613</v>
+        <v>52.08363521507715</v>
       </c>
       <c r="I18">
-        <v>87.14747105936391</v>
+        <v>140.8341240125331</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>54.12214712915702</v>
+        <v>82.9650732647158</v>
       </c>
       <c r="C19">
-        <v>3.049966250276516</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D19">
-        <v>5.658689738549674</v>
+        <v>9.612762316996642</v>
       </c>
       <c r="E19">
-        <v>3.12732403879679</v>
+        <v>5.315936503448163</v>
       </c>
       <c r="F19">
-        <v>1.457415255751664</v>
+        <v>2.469104194634452</v>
       </c>
       <c r="G19">
-        <v>37.21302449664317</v>
+        <v>63.24441418973654</v>
       </c>
       <c r="I19">
-        <v>104.6285669091749</v>
+        <v>168.7917314558157</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>89.45188206069011</v>
+        <v>137.1228294236275</v>
       </c>
       <c r="C20">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D20">
-        <v>11.31737947709935</v>
+        <v>19.22552463399328</v>
       </c>
       <c r="E20">
-        <v>1.563662019398395</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F20">
-        <v>2.498426152717139</v>
+        <v>4.232750047944776</v>
       </c>
       <c r="G20">
-        <v>45.96903026055922</v>
+        <v>78.12545282261574</v>
       </c>
       <c r="I20">
-        <v>153.5292971417643</v>
+        <v>246.0032355360543</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>202.5822034903864</v>
+        <v>310.5428784005681</v>
       </c>
       <c r="C21">
-        <v>3.049966250276516</v>
+        <v>5.184440986284177</v>
       </c>
       <c r="D21">
-        <v>26.02997279732849</v>
+        <v>44.21870665818455</v>
       </c>
       <c r="E21">
-        <v>20.32760625217914</v>
+        <v>34.55358727241307</v>
       </c>
       <c r="F21">
-        <v>6.246065381792844</v>
+        <v>10.58187511986194</v>
       </c>
       <c r="G21">
-        <v>72.23704755230735</v>
+        <v>122.7685687212533</v>
       </c>
       <c r="H21">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I21">
-        <v>331.203594685978</v>
+        <v>529.0921830071251</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>373.5931544887645</v>
+        <v>572.6894640633851</v>
       </c>
       <c r="C22">
-        <v>3.371015329252991</v>
+        <v>5.730171616419355</v>
       </c>
       <c r="D22">
-        <v>46.40125585610728</v>
+        <v>78.82465099937244</v>
       </c>
       <c r="E22">
-        <v>72.7102839020254</v>
+        <v>123.5955237051698</v>
       </c>
       <c r="F22">
-        <v>10.72241223874438</v>
+        <v>18.16555228909632</v>
       </c>
       <c r="G22">
-        <v>118.2060778128665</v>
+        <v>200.8940215438691</v>
       </c>
       <c r="H22">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I22">
-        <v>627.9271314745901</v>
+        <v>1004.867887611552</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>525.8116932895183</v>
+        <v>806.0287326203983</v>
       </c>
       <c r="C23">
-        <v>2.08681901334709</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D23">
-        <v>37.34735227442783</v>
+        <v>63.44423129217784</v>
       </c>
       <c r="E23">
-        <v>57.07366370804146</v>
+        <v>97.01584118792904</v>
       </c>
       <c r="F23">
-        <v>12.38802967388914</v>
+        <v>20.98738565439286</v>
       </c>
       <c r="G23">
-        <v>118.2060778128665</v>
+        <v>200.8940215438691</v>
       </c>
       <c r="H23">
-        <v>5.11513073195081</v>
+        <v>8.694880939919676</v>
       </c>
       <c r="I23">
-        <v>758.0287665040411</v>
+        <v>1200.612342334565</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>642.7004971587397</v>
+        <v>985.2102450184998</v>
       </c>
       <c r="C24">
-        <v>4.494687105670655</v>
+        <v>7.640228821892469</v>
       </c>
       <c r="D24">
-        <v>61.11384917633645</v>
+        <v>103.8178330235637</v>
       </c>
       <c r="E24">
-        <v>30.49140937826871</v>
+        <v>51.8303809086196</v>
       </c>
       <c r="F24">
-        <v>14.88645582660628</v>
+        <v>25.22013570233763</v>
       </c>
       <c r="G24">
-        <v>170.7421123963628</v>
+        <v>290.1802533411441</v>
       </c>
       <c r="H24">
-        <v>6.576596655365329</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I24">
-        <v>931.0056076973499</v>
+        <v>1475.078209453097</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>484.0925382107935</v>
+        <v>742.0764886455136</v>
       </c>
       <c r="C25">
-        <v>2.889441710788279</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D25">
-        <v>57.71863533320664</v>
+        <v>98.05017563336571</v>
       </c>
       <c r="E25">
-        <v>64.8919738050334</v>
+        <v>110.3056824465494</v>
       </c>
       <c r="F25">
-        <v>16.86437653084068</v>
+        <v>28.57106282362725</v>
       </c>
       <c r="G25">
-        <v>273.6251801223763</v>
+        <v>465.0324572774746</v>
       </c>
       <c r="H25">
-        <v>13.15319331073066</v>
+        <v>22.35826527407917</v>
       </c>
       <c r="I25">
-        <v>913.2353390237695</v>
+        <v>1471.305707771826</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>411.1779788840122</v>
+        <v>630.3040982749932</v>
       </c>
       <c r="C26">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D26">
-        <v>54.32342149007686</v>
+        <v>92.28251824316776</v>
       </c>
       <c r="E26">
-        <v>31.27324038796791</v>
+        <v>53.15936503448165</v>
       </c>
       <c r="F26">
-        <v>19.98740922173711</v>
+        <v>33.86200038355821</v>
       </c>
       <c r="G26">
-        <v>429.044282431886</v>
+        <v>729.1708930110802</v>
       </c>
       <c r="H26">
-        <v>5.11513073195081</v>
+        <v>8.694880939919676</v>
       </c>
       <c r="I26">
-        <v>953.650380318931</v>
+        <v>1552.112466243349</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>493.1128960656529</v>
+        <v>755.9040008562989</v>
       </c>
       <c r="C27">
-        <v>6.581506119017746</v>
+        <v>11.18747791777112</v>
       </c>
       <c r="D27">
-        <v>100.7246773461841</v>
+        <v>171.1071692425402</v>
       </c>
       <c r="E27">
-        <v>13.29112716488636</v>
+        <v>22.59273013965469</v>
       </c>
       <c r="F27">
-        <v>16.2397699926614</v>
+        <v>27.51287531164106</v>
       </c>
       <c r="G27">
-        <v>140.0960922226567</v>
+        <v>238.0966181260671</v>
       </c>
       <c r="H27">
-        <v>10.96099442560888</v>
+        <v>18.63188772839931</v>
       </c>
       <c r="I27">
-        <v>781.0070633366681</v>
+        <v>1245.032759322373</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>529.9460239729958</v>
+        <v>812.3663423836749</v>
       </c>
       <c r="C28">
-        <v>6.742030658505982</v>
+        <v>11.46034323283871</v>
       </c>
       <c r="D28">
-        <v>92.80251171221457</v>
+        <v>157.6493019987449</v>
       </c>
       <c r="E28">
-        <v>10.16380312608957</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F28">
-        <v>17.38488197932342</v>
+        <v>29.4528857502824</v>
       </c>
       <c r="G28">
-        <v>131.3400864587406</v>
+        <v>223.2155794931879</v>
       </c>
       <c r="H28">
-        <v>10.23026146390162</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I28">
-        <v>798.6095993717715</v>
+        <v>1268.811008374774</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>521.3015143620888</v>
+        <v>799.1149765150052</v>
       </c>
       <c r="C29">
-        <v>6.099932500553033</v>
+        <v>10.36888197256835</v>
       </c>
       <c r="D29">
-        <v>82.6168701828252</v>
+        <v>140.3463298281509</v>
       </c>
       <c r="E29">
-        <v>14.07295817458556</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F29">
-        <v>20.50791467021984</v>
+        <v>34.74382331021336</v>
       </c>
       <c r="G29">
-        <v>135.7180893406986</v>
+        <v>230.6560988096275</v>
       </c>
       <c r="H29">
-        <v>10.23026146390162</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I29">
-        <v>790.5475406948726</v>
+        <v>1256.541586580921</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>538.2146853399504</v>
+        <v>825.0415619102293</v>
       </c>
       <c r="C30">
-        <v>6.581506119017746</v>
+        <v>11.18747791777112</v>
       </c>
       <c r="D30">
-        <v>104.119891189314</v>
+        <v>176.8748266327382</v>
       </c>
       <c r="E30">
-        <v>14.07295817458556</v>
+        <v>23.92171426551673</v>
       </c>
       <c r="F30">
-        <v>17.90538742780615</v>
+        <v>30.33470867693756</v>
       </c>
       <c r="G30">
-        <v>109.4500720489505</v>
+        <v>186.0129829109898</v>
       </c>
       <c r="H30">
-        <v>7.307329617072588</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I30">
-        <v>797.6518299166969</v>
+        <v>1265.794530799782</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>550.9935256343344</v>
+        <v>844.6305375421757</v>
       </c>
       <c r="C31">
-        <v>5.939407961064796</v>
+        <v>10.09601665750077</v>
       </c>
       <c r="D31">
-        <v>114.3055327187034</v>
+        <v>194.1777988033322</v>
       </c>
       <c r="E31">
-        <v>21.89126827157754</v>
+        <v>37.21155552413715</v>
       </c>
       <c r="F31">
-        <v>15.30286018539247</v>
+        <v>25.92559404366176</v>
       </c>
       <c r="G31">
-        <v>91.93806052111844</v>
+        <v>156.2509056452315</v>
       </c>
       <c r="H31">
-        <v>10.96099442560888</v>
+        <v>18.63188772839931</v>
       </c>
       <c r="I31">
-        <v>811.3316497178</v>
+        <v>1286.924295944438</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>607.746610471159</v>
+        <v>931.6286352017042</v>
       </c>
       <c r="C32">
-        <v>6.420981579529506</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D32">
-        <v>99.59293939847421</v>
+        <v>169.1846167791409</v>
       </c>
       <c r="E32">
-        <v>26.58225432977272</v>
+        <v>45.18546027930938</v>
       </c>
       <c r="F32">
-        <v>15.09465800599937</v>
+        <v>25.57286487299969</v>
       </c>
       <c r="G32">
-        <v>59.10303890643327</v>
+        <v>100.4470107719345</v>
       </c>
       <c r="H32">
-        <v>18.99905700438872</v>
+        <v>32.29527206255881</v>
       </c>
       <c r="I32">
-        <v>833.5395396957568</v>
+        <v>1315.228472570351</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>674.6475978947004</v>
+        <v>1034.182684098367</v>
       </c>
       <c r="C33">
-        <v>4.17363802669418</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D33">
-        <v>76.95818044427554</v>
+        <v>130.7335675111543</v>
       </c>
       <c r="E33">
-        <v>40.65521250435829</v>
+        <v>69.10717454482614</v>
       </c>
       <c r="F33">
-        <v>14.67825364721319</v>
+        <v>24.86740653167556</v>
       </c>
       <c r="G33">
-        <v>50.34703314251721</v>
+        <v>85.56597213905535</v>
       </c>
       <c r="H33">
-        <v>5.11513073195081</v>
+        <v>8.694880939919676</v>
       </c>
       <c r="I33">
-        <v>866.5750463917096</v>
+        <v>1360.246183956755</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>655.1034892091715</v>
+        <v>1004.223074308331</v>
       </c>
       <c r="C34">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D34">
-        <v>63.37732507175632</v>
+        <v>107.6629379503624</v>
       </c>
       <c r="E34">
-        <v>54.72817067894384</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F34">
-        <v>7.9116828169376</v>
+        <v>13.40370848515846</v>
       </c>
       <c r="G34">
-        <v>43.78002881958021</v>
+        <v>74.40519316439595</v>
       </c>
       <c r="H34">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I34">
-        <v>828.3603467293968</v>
+        <v>1298.604638923299</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>461.9174918175972</v>
+        <v>708.0838544606645</v>
       </c>
       <c r="C35">
-        <v>2.407868092323565</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D35">
-        <v>55.45515943778679</v>
+        <v>94.20507070656708</v>
       </c>
       <c r="E35">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F35">
-        <v>4.059942498165351</v>
+        <v>6.878218827910264</v>
       </c>
       <c r="G35">
-        <v>26.26801729174812</v>
+        <v>44.64311589863757</v>
       </c>
       <c r="H35">
-        <v>2.192198885121776</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I35">
-        <v>594.5195525464994</v>
+        <v>933.3947599620233</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>391.6338701984835</v>
+        <v>600.3444884849572</v>
       </c>
       <c r="C36">
-        <v>4.976260724135369</v>
+        <v>8.458824767095235</v>
       </c>
       <c r="D36">
-        <v>37.34735227442783</v>
+        <v>63.44423129217784</v>
       </c>
       <c r="E36">
-        <v>35.96422644616311</v>
+        <v>61.1332697896539</v>
       </c>
       <c r="F36">
-        <v>3.851740318772255</v>
+        <v>6.525489657248197</v>
       </c>
       <c r="G36">
-        <v>41.59102737860121</v>
+        <v>70.68493350617615</v>
       </c>
       <c r="H36">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I36">
-        <v>516.0952103022906</v>
+        <v>811.8333633458685</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>314.2091319442727</v>
+        <v>481.6583420090444</v>
       </c>
       <c r="C37">
-        <v>3.692064408229467</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D37">
-        <v>29.42518664045829</v>
+        <v>49.98636404838254</v>
       </c>
       <c r="E37">
-        <v>30.49140937826871</v>
+        <v>51.8303809086196</v>
       </c>
       <c r="F37">
-        <v>2.186122883627495</v>
+        <v>3.70365629195168</v>
       </c>
       <c r="G37">
-        <v>26.26801729174812</v>
+        <v>44.64311589863757</v>
       </c>
       <c r="H37">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I37">
-        <v>407.7333984700193</v>
+        <v>640.5820131003103</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>238.2877866658719</v>
+        <v>365.2767809015959</v>
       </c>
       <c r="C38">
-        <v>4.17363802669418</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D38">
-        <v>24.89823484961855</v>
+        <v>42.29615419478522</v>
       </c>
       <c r="E38">
-        <v>10.16380312608957</v>
+        <v>17.27679363620653</v>
       </c>
       <c r="F38">
-        <v>1.457415255751664</v>
+        <v>2.469104194634452</v>
       </c>
       <c r="G38">
-        <v>17.51201152783208</v>
+        <v>29.76207726575839</v>
       </c>
       <c r="H38">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I38">
-        <v>297.2236224135652</v>
+        <v>465.4175342332977</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>149.2117528491343</v>
+        <v>228.7300978200844</v>
       </c>
       <c r="C39">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D39">
-        <v>19.23954511106889</v>
+        <v>32.68339187778857</v>
       </c>
       <c r="E39">
-        <v>7.03647908729278</v>
+        <v>11.96085713275837</v>
       </c>
       <c r="F39">
-        <v>2.290223973324045</v>
+        <v>3.880020877282713</v>
       </c>
       <c r="G39">
-        <v>28.45701873272713</v>
+        <v>48.36337555685738</v>
       </c>
       <c r="H39">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I39">
-        <v>209.6946698865544</v>
+        <v>331.4985794694804</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>112.0027766978388</v>
+        <v>171.6916099505924</v>
       </c>
       <c r="C40">
-        <v>3.852588947717705</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D40">
-        <v>10.18564152938941</v>
+        <v>17.30297217059395</v>
       </c>
       <c r="E40">
-        <v>2.345493029097593</v>
+        <v>3.986952377586123</v>
       </c>
       <c r="F40">
-        <v>0.9369098072689267</v>
+        <v>1.587281267979291</v>
       </c>
       <c r="G40">
-        <v>19.70101296881109</v>
+        <v>33.48233692397818</v>
       </c>
       <c r="H40">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I40">
-        <v>149.7551559418308</v>
+        <v>235.842046100912</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>71.41116635097107</v>
+        <v>109.4678050020556</v>
       </c>
       <c r="C41">
-        <v>4.334162566182417</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="E41">
-        <v>0.7818310096991975</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F41">
-        <v>1.9779207042344</v>
+        <v>3.350927121289615</v>
       </c>
       <c r="G41">
-        <v>19.70101296881109</v>
+        <v>33.48233692397818</v>
       </c>
       <c r="H41">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I41">
-        <v>98.93682656160544</v>
+        <v>156.2395425285703</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>42.84669981058265</v>
+        <v>65.68068300123335</v>
       </c>
       <c r="C42">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D42">
-        <v>10.18564152938941</v>
+        <v>17.30297217059395</v>
       </c>
       <c r="F42">
-        <v>1.457415255751664</v>
+        <v>2.469104194634452</v>
       </c>
       <c r="G42">
-        <v>32.83502161468515</v>
+        <v>55.80389487329697</v>
       </c>
       <c r="I42">
-        <v>90.8563180791501</v>
+        <v>147.2596911712457</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>52.99460239729957</v>
+        <v>81.23663423836749</v>
       </c>
       <c r="C43">
-        <v>2.407868092323565</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D43">
-        <v>7.922165633969541</v>
+        <v>13.4578672437953</v>
       </c>
       <c r="E43">
-        <v>3.12732403879679</v>
+        <v>5.315936503448163</v>
       </c>
       <c r="F43">
-        <v>1.457415255751664</v>
+        <v>2.469104194634452</v>
       </c>
       <c r="G43">
-        <v>41.59102737860121</v>
+        <v>70.68493350617615</v>
       </c>
       <c r="I43">
-        <v>109.5004027967423</v>
+        <v>177.2574554124354</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>87.5726408409277</v>
+        <v>134.2420977130471</v>
       </c>
       <c r="C44">
-        <v>2.08681901334709</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D44">
-        <v>15.84433126793908</v>
+        <v>26.9157344875906</v>
       </c>
       <c r="E44">
-        <v>1.563662019398395</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F44">
-        <v>2.394325063020589</v>
+        <v>4.056385462613744</v>
       </c>
       <c r="G44">
-        <v>50.34703314251721</v>
+        <v>85.56597213905535</v>
       </c>
       <c r="I44">
-        <v>159.8088113471501</v>
+        <v>256.9854071499095</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>198.4478728069091</v>
+        <v>304.2052686372912</v>
       </c>
       <c r="C45">
-        <v>2.407868092323565</v>
+        <v>4.092979726013825</v>
       </c>
       <c r="D45">
-        <v>37.34735227442783</v>
+        <v>63.44423129217784</v>
       </c>
       <c r="E45">
-        <v>19.54577524247994</v>
+        <v>33.22460314655103</v>
       </c>
       <c r="F45">
-        <v>6.037863202399749</v>
+        <v>10.22914594919987</v>
       </c>
       <c r="G45">
-        <v>78.80405187524435</v>
+        <v>133.9293476959127</v>
       </c>
       <c r="H45">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I45">
-        <v>343.3215164554917</v>
+        <v>550.3677022957064</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>366.0761896097151</v>
+        <v>561.1665372210634</v>
       </c>
       <c r="C46">
-        <v>2.568392631811804</v>
+        <v>4.365845041081413</v>
       </c>
       <c r="D46">
-        <v>66.77253891488617</v>
+        <v>113.4305953405604</v>
       </c>
       <c r="E46">
-        <v>70.36479087292781</v>
+        <v>119.6085713275837</v>
       </c>
       <c r="F46">
-        <v>10.41010896965474</v>
+        <v>17.63645853310323</v>
       </c>
       <c r="G46">
-        <v>129.1510850177616</v>
+        <v>219.4953198349681</v>
       </c>
       <c r="H46">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I46">
-        <v>648.2660378635861</v>
+        <v>1040.6718306926</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>515.2879424588492</v>
+        <v>789.8966350411482</v>
       </c>
       <c r="C47">
-        <v>1.605245394882377</v>
+        <v>2.728653150675883</v>
       </c>
       <c r="D47">
-        <v>54.32342149007686</v>
+        <v>92.28251824316776</v>
       </c>
       <c r="E47">
-        <v>55.51000168864304</v>
+        <v>94.35787293620493</v>
       </c>
       <c r="F47">
-        <v>12.0757264047995</v>
+        <v>20.45829189839974</v>
       </c>
       <c r="G47">
-        <v>129.1510850177616</v>
+        <v>219.4953198349681</v>
       </c>
       <c r="H47">
-        <v>5.845863693658069</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I47">
-        <v>773.7992861486706</v>
+        <v>1229.156297893044</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>629.921656864355</v>
+        <v>965.6212693865529</v>
       </c>
       <c r="C48">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D48">
-        <v>88.27555992137491</v>
+        <v>149.9590921451475</v>
       </c>
       <c r="E48">
-        <v>29.70957836856952</v>
+        <v>50.50139678275755</v>
       </c>
       <c r="F48">
-        <v>14.47005146782009</v>
+        <v>24.51467736101349</v>
       </c>
       <c r="G48">
-        <v>186.0651224832158</v>
+        <v>316.2220709486828</v>
       </c>
       <c r="H48">
-        <v>7.307329617072588</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I48">
-        <v>959.2808385911492</v>
+        <v>1525.242802041241</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>474.3204838680286</v>
+        <v>727.0966837504952</v>
       </c>
       <c r="C49">
-        <v>2.247343552835328</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D49">
-        <v>82.6168701828252</v>
+        <v>140.3463298281509</v>
       </c>
       <c r="E49">
-        <v>63.32831178563502</v>
+        <v>107.6477141948253</v>
       </c>
       <c r="F49">
-        <v>16.44797217205449</v>
+        <v>27.86560448230311</v>
       </c>
       <c r="G49">
-        <v>297.7041959731454</v>
+        <v>505.9553135178923</v>
       </c>
       <c r="H49">
-        <v>14.61465923414518</v>
+        <v>24.84251697119907</v>
       </c>
       <c r="I49">
-        <v>951.2798367686693</v>
+        <v>1537.574277155812</v>
       </c>
     </row>
   </sheetData>
